--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2A978-A221-4F96-BF7F-83D5DE6673B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3FBE5-71CD-42AE-91A9-0D2EE8AD63FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="5" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Insertion Gain ParametersFre" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
+    <sheet name="Bark Scale" sheetId="4" r:id="rId4"/>
+    <sheet name="Symmetric" sheetId="5" r:id="rId5"/>
+    <sheet name="Octave" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="63">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -178,6 +182,48 @@
   </si>
   <si>
     <t>ki (dB)</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Filters </t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Frequency (Hz) </t>
+  </si>
+  <si>
+    <t>Cut-Off Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Bandwidth (Hz)</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Band Number</t>
+  </si>
+  <si>
+    <t>Lower Passband Frequency</t>
+  </si>
+  <si>
+    <t>Upper Passband Frequency</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Center Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Lower Passband Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Upper Passband Frequency (Hz)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,18 +278,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA0B17E-73E0-4EF2-943B-8C385AD95F0C}">
   <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AX21" sqref="AX21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,140 +679,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1592,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED8EAB-8A02-4BEB-B55A-E8CDAC599B2C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,4 +1728,1139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8142D730-A3F2-41C7-942E-EFD0188BC00B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7AB1D2-0A19-4C00-9AAC-39A308A7EAD4}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>250</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>250</v>
+      </c>
+      <c r="I5" s="1">
+        <v>300</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>350</v>
+      </c>
+      <c r="C6" s="1">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>350</v>
+      </c>
+      <c r="I6" s="1">
+        <v>400</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>450</v>
+      </c>
+      <c r="C7" s="1">
+        <v>510</v>
+      </c>
+      <c r="D7" s="1">
+        <v>110</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>450</v>
+      </c>
+      <c r="I7" s="1">
+        <v>510</v>
+      </c>
+      <c r="J7" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>570</v>
+      </c>
+      <c r="C8" s="1">
+        <v>630</v>
+      </c>
+      <c r="D8" s="1">
+        <v>120</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>570</v>
+      </c>
+      <c r="I8" s="1">
+        <v>630</v>
+      </c>
+      <c r="J8" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>700</v>
+      </c>
+      <c r="C9" s="1">
+        <v>770</v>
+      </c>
+      <c r="D9" s="1">
+        <v>140</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>700</v>
+      </c>
+      <c r="I9" s="1">
+        <v>770</v>
+      </c>
+      <c r="J9" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>840</v>
+      </c>
+      <c r="C10" s="1">
+        <v>920</v>
+      </c>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>840</v>
+      </c>
+      <c r="I10" s="1">
+        <v>920</v>
+      </c>
+      <c r="J10" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D11" s="1">
+        <v>160</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1080</v>
+      </c>
+      <c r="J11" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1170</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1270</v>
+      </c>
+      <c r="D12" s="1">
+        <v>190</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1170</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1270</v>
+      </c>
+      <c r="J12" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1370</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1480</v>
+      </c>
+      <c r="D13" s="1">
+        <v>210</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1370</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1480</v>
+      </c>
+      <c r="J13" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1720</v>
+      </c>
+      <c r="D14" s="1">
+        <v>240</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1720</v>
+      </c>
+      <c r="J14" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1850</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>280</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1850</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2320</v>
+      </c>
+      <c r="D16" s="1">
+        <v>320</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2150</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2320</v>
+      </c>
+      <c r="J16" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2700</v>
+      </c>
+      <c r="D17" s="1">
+        <v>380</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J17" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2900</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3150</v>
+      </c>
+      <c r="D18" s="1">
+        <v>450</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2900</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3150</v>
+      </c>
+      <c r="J18" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3400</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3700</v>
+      </c>
+      <c r="D19" s="1">
+        <v>550</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3400</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3700</v>
+      </c>
+      <c r="J19" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4400</v>
+      </c>
+      <c r="D20" s="1">
+        <v>700</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4400</v>
+      </c>
+      <c r="J20" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5300</v>
+      </c>
+      <c r="D21" s="1">
+        <v>900</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4800</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5300</v>
+      </c>
+      <c r="J21" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5800</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6400</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7700</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7700</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9500</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10500</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13500</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15500</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EFE3E3-C957-471B-AE8B-36918DB0CCF0}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2-B2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0711990E-69C1-490E-9831-9A270016A4DF}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <f>(B2)/(2^(0.5))</f>
+        <v>44.547727214752491</v>
+      </c>
+      <c r="D2">
+        <f>(2^(0.5))*(B2)</f>
+        <v>89.095454429504997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>125</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">(B3)/(2^(0.5))</f>
+        <v>88.38834764831843</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">(2^(0.5))*(B3)</f>
+        <v>176.77669529663689</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>176.77669529663686</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>353.55339059327378</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>353.55339059327372</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>707.10678118654744</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1414.2135623730949</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2828.4271247461902</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2828.4271247461897</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5656.8542494923804</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5656.8542494923795</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>11313.708498984761</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3FBE5-71CD-42AE-91A9-0D2EE8AD63FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDFA5C-E414-42C4-AAEA-C957C152C227}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="5" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="4" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Insertion Gain ParametersFre" sheetId="2" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Bark Scale" sheetId="4" r:id="rId4"/>
-    <sheet name="Symmetric" sheetId="5" r:id="rId5"/>
-    <sheet name="Octave" sheetId="6" r:id="rId6"/>
+    <sheet name="Critical" sheetId="8" r:id="rId5"/>
+    <sheet name="Symmetric" sheetId="5" r:id="rId6"/>
+    <sheet name="Octave" sheetId="6" r:id="rId7"/>
+    <sheet name="Uniform" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="70">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -224,6 +226,27 @@
   </si>
   <si>
     <t>Upper Passband Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Lower stop</t>
+  </si>
+  <si>
+    <t>Upper stop</t>
+  </si>
+  <si>
+    <t>fp1 (Hz)</t>
+  </si>
+  <si>
+    <t>fs1 (Hz)</t>
+  </si>
+  <si>
+    <t>fp2 (Hz)</t>
+  </si>
+  <si>
+    <t>fs2 (Hz)</t>
+  </si>
+  <si>
+    <t>Gain (dB)</t>
   </si>
 </sst>
 </file>
@@ -319,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -337,6 +360,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2536,11 +2561,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114133C3-43B9-4EB9-B4BF-EBA953C9D1FF}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1">
+        <f>B3-(0.1*(B4-B3))</f>
+        <v>-8</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:I2" si="0">C3-(0.1*(C4-C3))</f>
+        <v>267</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>1429</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
+        <v>2507.5</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>630</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1075</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1480</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1990</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2675</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>630</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1080</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1475</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2690</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4350</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4+(0.1*(B4-B3))</f>
+        <v>328</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:I5" si="1">C4+(0.1*(C4-C3))</f>
+        <v>663</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>1515</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2760</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>4517.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22.15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>23.64</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22.51</v>
+      </c>
+      <c r="G6" s="1">
+        <v>21.27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>21.23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EFE3E3-C957-471B-AE8B-36918DB0CCF0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2778,7 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2563,8 +2791,33 @@
       <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2578,8 +2831,43 @@
         <f>C2-B2</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1">
+        <f>H3-(0.1*(H4-H3))</f>
+        <v>-28</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:O2" si="0">I3-(0.1*(I4-I3))</f>
+        <v>450</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>6950</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2590,11 +2878,38 @@
         <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D9" si="1">C3-B3</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>500</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2605,11 +2920,38 @@
         <v>2000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1">
+        <v>500</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7500</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2620,11 +2962,46 @@
         <v>4000</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1">
+        <f>H4+(0.1*(H4-H3))</f>
+        <v>548</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:O5" si="2">I4+(0.1*(I4-I3))</f>
+        <v>1050</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2635,11 +3012,38 @@
         <v>6000</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="I6" s="1">
+        <v>20.49</v>
+      </c>
+      <c r="J6" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>21.36</v>
+      </c>
+      <c r="L6" s="1">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2650,11 +3054,11 @@
         <v>7000</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2665,11 +3069,11 @@
         <v>7500</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2680,7 +3084,7 @@
         <v>8000</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2690,175 +3094,648 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0711990E-69C1-490E-9831-9A270016A4DF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>63</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <f>(B2)/(2^(0.5))</f>
         <v>44.547727214752491</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <f>(2^(0.5))*(B2)</f>
         <v>89.095454429504997</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="8">
+        <f>D2-C2</f>
+        <v>44.547727214752506</v>
+      </c>
+      <c r="F2" s="8">
+        <f>C2-(0.1*E2)</f>
+        <v>40.09295449327724</v>
+      </c>
+      <c r="G2" s="8">
+        <f>D2+(0.1*E2)</f>
+        <v>93.550227150980248</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="9">
+        <f>K3-(0.1*(K4-K3))</f>
+        <v>40.6</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" ref="L2:R2" si="0">L3-(0.1*(L4-L3))</f>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="0"/>
+        <v>159.30000000000001</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="0"/>
+        <v>318.7</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" si="0"/>
+        <v>636.29999999999995</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" si="0"/>
+        <v>1272.5999999999999</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="0"/>
+        <v>2545.1</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>5091.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>125</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">(B3)/(2^(0.5))</f>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C9" si="1">(B3)/(2^(0.5))</f>
         <v>88.38834764831843</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="1">(2^(0.5))*(B3)</f>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D9" si="2">(2^(0.5))*(B3)</f>
         <v>176.77669529663689</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E9" si="3">D3-C3</f>
+        <v>88.388347648318458</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F9" si="4">C3-(0.1*E3)</f>
+        <v>79.549512883486585</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G9" si="5">D3+(0.1*E3)</f>
+        <v>185.61553006146875</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1">
+        <v>177</v>
+      </c>
+      <c r="N3" s="1">
+        <v>354</v>
+      </c>
+      <c r="O3" s="1">
+        <v>707</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1414</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2828</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>250</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>176.77669529663686</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="2"/>
+        <v>353.55339059327378</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="3"/>
+        <v>176.77669529663692</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="4"/>
+        <v>159.09902576697317</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="5"/>
+        <v>371.23106012293749</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1">
+        <v>89</v>
+      </c>
+      <c r="L4" s="1">
+        <v>177</v>
+      </c>
+      <c r="M4" s="1">
+        <v>354</v>
+      </c>
+      <c r="N4" s="1">
+        <v>707</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1414</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2828</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5657</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>500</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>353.55339059327372</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="2"/>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="3"/>
+        <v>353.55339059327383</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="4"/>
+        <v>318.19805153394634</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="5"/>
+        <v>742.46212024587498</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="9">
+        <f>K4+(0.1*(K4-K3))</f>
+        <v>93.4</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:R5" si="6">L4+(0.1*(L4-L3))</f>
+        <v>185.9</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="6"/>
+        <v>371.7</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="6"/>
+        <v>742.3</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="6"/>
+        <v>1484.7</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="6"/>
+        <v>2969.4</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="6"/>
+        <v>5939.9</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="6"/>
+        <v>11879.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>707.10678118654744</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="3"/>
+        <v>707.10678118654766</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="4"/>
+        <v>636.39610306789268</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="5"/>
+        <v>1484.92424049175</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15.44</v>
+      </c>
+      <c r="O6" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>22.05</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>21.06</v>
+      </c>
+      <c r="R6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>1414.2135623730949</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
+        <v>2828.4271247461902</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="3"/>
+        <v>1414.2135623730953</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="4"/>
+        <v>1272.7922061357854</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="5"/>
+        <v>2969.8484809834999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="1"/>
+        <v>2828.4271247461897</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="2"/>
+        <v>5656.8542494923804</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="3"/>
+        <v>2828.4271247461907</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="4"/>
+        <v>2545.5844122715707</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="5"/>
+        <v>5939.6969619669999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8000</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>5656.8542494923795</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>11313.708498984761</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="3"/>
+        <v>5656.8542494923813</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>5091.1688245431415</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="5"/>
+        <v>11879.393923934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3022DD-77FC-4364-A3DA-4F625118B5D1}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:I2" si="0">B3-(0.1*(B4-B3))</f>
+        <v>120</v>
+      </c>
+      <c r="C2" s="1">
         <f t="shared" si="0"/>
-        <v>176.77669529663686</v>
-      </c>
-      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4+(0.1*(B4-B3))</f>
+        <v>1080</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:I5" si="1">C4+(0.1*(C4-C3))</f>
+        <v>2100</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>353.55339059327378</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>500</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>353.55339059327372</v>
-      </c>
-      <c r="D5">
+        <v>3100</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>707.10678118654755</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>707.10678118654744</v>
-      </c>
-      <c r="D6">
+        <v>4100</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>1414.2135623730951</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2000</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1414.2135623730949</v>
-      </c>
-      <c r="D7">
+        <v>5100</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>2828.4271247461902</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2828.4271247461897</v>
-      </c>
-      <c r="D8">
+        <v>6100</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>5656.8542494923804</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8000</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>5656.8542494923795</v>
-      </c>
-      <c r="D9">
+        <v>7100</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>11313.708498984761</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17.16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23.07</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21.62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDFA5C-E414-42C4-AAEA-C957C152C227}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF783A-B3ED-4676-9618-9FDF6D26CAC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="4" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="8" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Parameters" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Symmetric" sheetId="5" r:id="rId6"/>
     <sheet name="Octave" sheetId="6" r:id="rId7"/>
     <sheet name="Uniform" sheetId="7" r:id="rId8"/>
+    <sheet name="ANSI" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -234,6 +235,9 @@
     <t>Upper stop</t>
   </si>
   <si>
+    <t>Gain</t>
+  </si>
+  <si>
     <t>fp1 (Hz)</t>
   </si>
   <si>
@@ -247,6 +251,24 @@
   </si>
   <si>
     <t>Gain (dB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Passband Frequency </t>
+  </si>
+  <si>
+    <t>Midband Frequency</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Fstop1</t>
+  </si>
+  <si>
+    <t>Fstop 2</t>
   </si>
 </sst>
 </file>
@@ -270,15 +292,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -338,30 +366,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,10 +746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="9"/>
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1974,7 @@
       <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -1961,7 +2003,7 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1">
         <v>2</v>
       </c>
@@ -1988,7 +2030,7 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -2015,7 +2057,7 @@
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -2044,7 +2086,7 @@
       <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -2071,7 +2113,7 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -2098,7 +2140,7 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>3</v>
       </c>
       <c r="G9" s="1">
@@ -2127,7 +2169,7 @@
       <c r="D10" s="1">
         <v>150</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -2154,7 +2196,7 @@
       <c r="D11" s="1">
         <v>160</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -2181,7 +2223,7 @@
       <c r="D12" s="1">
         <v>190</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="10">
         <v>4</v>
       </c>
       <c r="G12" s="1">
@@ -2210,7 +2252,7 @@
       <c r="D13" s="1">
         <v>210</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -2237,7 +2279,7 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="10">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -2266,7 +2308,7 @@
       <c r="D15" s="1">
         <v>280</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -2293,7 +2335,7 @@
       <c r="D16" s="1">
         <v>320</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="10">
         <v>6</v>
       </c>
       <c r="G16" s="1">
@@ -2322,7 +2364,7 @@
       <c r="D17" s="1">
         <v>380</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -2349,7 +2391,7 @@
       <c r="D18" s="1">
         <v>450</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="10">
         <v>7</v>
       </c>
       <c r="G18" s="1">
@@ -2378,7 +2420,7 @@
       <c r="D19" s="1">
         <v>550</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -2405,7 +2447,7 @@
       <c r="D20" s="1">
         <v>700</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -2432,7 +2474,7 @@
       <c r="D21" s="1">
         <v>900</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="10">
         <v>8</v>
       </c>
       <c r="G21" s="1">
@@ -2461,7 +2503,7 @@
       <c r="D22" s="1">
         <v>1100</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="1">
         <v>20</v>
       </c>
@@ -2488,7 +2530,7 @@
       <c r="D23" s="1">
         <v>1300</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="1">
         <v>21</v>
       </c>
@@ -2564,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114133C3-43B9-4EB9-B4BF-EBA953C9D1FF}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,7 +2641,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <f>B3-(0.1*(B4-B3))</f>
@@ -2625,7 +2667,7 @@
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>2507.5</v>
       </c>
@@ -2636,7 +2678,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -2656,7 +2698,7 @@
       <c r="G3" s="1">
         <v>1990</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>2675</v>
       </c>
       <c r="I3" s="1">
@@ -2665,7 +2707,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>300</v>
@@ -2685,7 +2727,7 @@
       <c r="G4" s="1">
         <v>2690</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>4350</v>
       </c>
       <c r="I4" s="1">
@@ -2694,7 +2736,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <f>B4+(0.1*(B4-B3))</f>
@@ -2720,7 +2762,7 @@
         <f t="shared" si="1"/>
         <v>2760</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>4517.5</v>
       </c>
@@ -2731,7 +2773,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1">
         <v>8.1</v>
@@ -2832,7 +2874,7 @@
         <v>480</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1">
         <f>H3-(0.1*(H4-H3))</f>
@@ -2882,7 +2924,7 @@
         <v>500</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1">
         <v>20</v>
@@ -2924,7 +2966,7 @@
         <v>1000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1">
         <v>500</v>
@@ -2966,7 +3008,7 @@
         <v>2000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1">
         <f>H4+(0.1*(H4-H3))</f>
@@ -3016,7 +3058,7 @@
         <v>2000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1">
         <v>6.38</v>
@@ -3099,7 +3141,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,13 +3166,13 @@
       <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J1" s="1"/>
@@ -3163,61 +3205,61 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>63</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="5">
         <f>(B2)/(2^(0.5))</f>
         <v>44.547727214752491</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <f>(2^(0.5))*(B2)</f>
         <v>89.095454429504997</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <f>D2-C2</f>
         <v>44.547727214752506</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <f>C2-(0.1*E2)</f>
         <v>40.09295449327724</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <f>D2+(0.1*E2)</f>
         <v>93.550227150980248</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="9">
+        <v>67</v>
+      </c>
+      <c r="K2" s="5">
         <f>K3-(0.1*(K4-K3))</f>
         <v>40.6</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <f t="shared" ref="L2:R2" si="0">L3-(0.1*(L4-L3))</f>
         <v>79.099999999999994</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <f t="shared" si="0"/>
         <v>159.30000000000001</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="5">
         <f t="shared" si="0"/>
         <v>318.7</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="5">
         <f t="shared" si="0"/>
         <v>636.29999999999995</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="5">
         <f t="shared" si="0"/>
         <v>1272.5999999999999</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="5">
         <f t="shared" si="0"/>
         <v>2545.1</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="5">
         <f t="shared" si="0"/>
         <v>5091.3</v>
       </c>
@@ -3226,31 +3268,31 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>125</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C9" si="1">(B3)/(2^(0.5))</f>
         <v>88.38834764831843</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D9" si="2">(2^(0.5))*(B3)</f>
         <v>176.77669529663689</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E9" si="3">D3-C3</f>
         <v>88.388347648318458</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F9" si="4">C3-(0.1*E3)</f>
         <v>79.549512883486585</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G9" si="5">D3+(0.1*E3)</f>
         <v>185.61553006146875</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K3" s="1">
         <v>45</v>
@@ -3281,31 +3323,31 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>250</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <f t="shared" si="1"/>
         <v>176.77669529663686</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <f t="shared" si="2"/>
         <v>353.55339059327378</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f t="shared" si="3"/>
         <v>176.77669529663692</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f t="shared" si="4"/>
         <v>159.09902576697317</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <f t="shared" si="5"/>
         <v>371.23106012293749</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1">
         <v>89</v>
@@ -3336,61 +3378,61 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>500</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <f t="shared" si="1"/>
         <v>353.55339059327372</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <f t="shared" si="2"/>
         <v>707.10678118654755</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f t="shared" si="3"/>
         <v>353.55339059327383</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f t="shared" si="4"/>
         <v>318.19805153394634</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="5"/>
         <v>742.46212024587498</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="9">
+        <v>69</v>
+      </c>
+      <c r="K5" s="5">
         <f>K4+(0.1*(K4-K3))</f>
         <v>93.4</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <f t="shared" ref="L5:R5" si="6">L4+(0.1*(L4-L3))</f>
         <v>185.9</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="5">
         <f t="shared" si="6"/>
         <v>371.7</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="5">
         <f t="shared" si="6"/>
         <v>742.3</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="5">
         <f t="shared" si="6"/>
         <v>1484.7</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="5">
         <f t="shared" si="6"/>
         <v>2969.4</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="5">
         <f t="shared" si="6"/>
         <v>5939.9</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="5">
         <f t="shared" si="6"/>
         <v>11879.7</v>
       </c>
@@ -3399,31 +3441,31 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>1000</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <f t="shared" si="1"/>
         <v>707.10678118654744</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <f t="shared" si="2"/>
         <v>1414.2135623730951</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f t="shared" si="3"/>
         <v>707.10678118654766</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="4"/>
         <v>636.39610306789268</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="5"/>
         <v>1484.92424049175</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -3454,26 +3496,26 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>2000</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <f t="shared" si="1"/>
         <v>1414.2135623730949</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
         <v>2828.4271247461902</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f t="shared" si="3"/>
         <v>1414.2135623730953</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f t="shared" si="4"/>
         <v>1272.7922061357854</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>2969.8484809834999</v>
       </c>
@@ -3482,26 +3524,26 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>4000</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <f t="shared" si="1"/>
         <v>2828.4271247461897</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <f t="shared" si="2"/>
         <v>5656.8542494923804</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <f t="shared" si="3"/>
         <v>2828.4271247461907</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f t="shared" si="4"/>
         <v>2545.5844122715707</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="5"/>
         <v>5939.6969619669999</v>
       </c>
@@ -3510,26 +3552,26 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>8000</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <f t="shared" si="1"/>
         <v>5656.8542494923795</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <f t="shared" si="2"/>
         <v>11313.708498984761</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f t="shared" si="3"/>
         <v>5656.8542494923813</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f t="shared" si="4"/>
         <v>5091.1688245431415</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="5"/>
         <v>11879.393923934</v>
       </c>
@@ -3544,7 +3586,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3620,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:I2" si="0">B3-(0.1*(B4-B3))</f>
@@ -3615,7 +3657,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>200</v>
@@ -3644,7 +3686,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>1000</v>
@@ -3673,7 +3715,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <f>B4+(0.1*(B4-B3))</f>
@@ -3710,7 +3752,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1">
         <v>17.16</v>
@@ -3734,6 +3776,713 @@
         <v>21</v>
       </c>
       <c r="I6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C75272-5206-49F9-A631-AFD544323144}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C2</f>
+        <v>22.281273453343641</v>
+      </c>
+      <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C2</f>
+        <v>28.050461357549082</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>-2.71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2">
+        <f>10^(3/10)</f>
+        <v>1.9952623149688797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C3</f>
+        <v>28.074404551212986</v>
+      </c>
+      <c r="C3" s="8">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C3</f>
+        <v>35.343581310511844</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>-2.5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C4</f>
+        <v>35.650037525349823</v>
+      </c>
+      <c r="C4" s="7">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C4</f>
+        <v>44.880738172078537</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C5</f>
+        <v>44.562546906687281</v>
+      </c>
+      <c r="C5" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C5</f>
+        <v>56.100922715098164</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C6</f>
+        <v>56.148809102425972</v>
+      </c>
+      <c r="C6" s="7">
+        <v>63</v>
+      </c>
+      <c r="D6" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C6</f>
+        <v>70.687162621023688</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>157</v>
+      </c>
+      <c r="G6">
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C7</f>
+        <v>71.300075050699647</v>
+      </c>
+      <c r="C7" s="7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C7</f>
+        <v>89.761476344157074</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>198</v>
+      </c>
+      <c r="G7">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C8</f>
+        <v>89.125093813374562</v>
+      </c>
+      <c r="C8" s="7">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C8</f>
+        <v>112.20184543019633</v>
+      </c>
+      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>250</v>
+      </c>
+      <c r="G8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($O$2^((-1)/(2*$O$3)))*C9</f>
+        <v>111.40636726671819</v>
+      </c>
+      <c r="C9" s="7">
+        <v>125</v>
+      </c>
+      <c r="D9" s="8">
+        <f>($O$2^((1)/(2*$O$3)))*C9</f>
+        <v>140.25230678774543</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>315</v>
+      </c>
+      <c r="G9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C10</f>
+        <v>142.60015010139929</v>
+      </c>
+      <c r="C10" s="1">
+        <v>160</v>
+      </c>
+      <c r="D10" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C10</f>
+        <v>179.52295268831415</v>
+      </c>
+      <c r="E10">
+        <v>62</v>
+      </c>
+      <c r="F10" s="14">
+        <v>397</v>
+      </c>
+      <c r="G10">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C11</f>
+        <v>178.25018762674912</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C11</f>
+        <v>224.40369086039266</v>
+      </c>
+      <c r="E11">
+        <v>79</v>
+      </c>
+      <c r="F11" s="14">
+        <v>500</v>
+      </c>
+      <c r="G11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C12</f>
+        <v>222.81273453343638</v>
+      </c>
+      <c r="C12" s="1">
+        <v>250</v>
+      </c>
+      <c r="D12" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C12</f>
+        <v>280.50461357549085</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="F12" s="14">
+        <v>630</v>
+      </c>
+      <c r="G12">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C13</f>
+        <v>280.74404551212984</v>
+      </c>
+      <c r="C13" s="1">
+        <v>315</v>
+      </c>
+      <c r="D13" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C13</f>
+        <v>353.43581310511843</v>
+      </c>
+      <c r="E13">
+        <v>125</v>
+      </c>
+      <c r="F13" s="15">
+        <v>794</v>
+      </c>
+      <c r="G13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C14</f>
+        <v>356.50037525349825</v>
+      </c>
+      <c r="C14" s="1">
+        <v>400</v>
+      </c>
+      <c r="D14" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C14</f>
+        <v>448.80738172078532</v>
+      </c>
+      <c r="E14">
+        <v>157</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C15</f>
+        <v>445.62546906687277</v>
+      </c>
+      <c r="C15" s="1">
+        <v>500</v>
+      </c>
+      <c r="D15" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C15</f>
+        <v>561.0092271509817</v>
+      </c>
+      <c r="E15">
+        <v>198</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1260</v>
+      </c>
+      <c r="G15">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C16</f>
+        <v>561.48809102425969</v>
+      </c>
+      <c r="C16" s="1">
+        <v>630</v>
+      </c>
+      <c r="D16" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C16</f>
+        <v>706.87162621023685</v>
+      </c>
+      <c r="E16">
+        <v>250</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1587</v>
+      </c>
+      <c r="G16">
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C17</f>
+        <v>713.0007505069965</v>
+      </c>
+      <c r="C17" s="1">
+        <v>800</v>
+      </c>
+      <c r="D17" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C17</f>
+        <v>897.61476344157063</v>
+      </c>
+      <c r="E17">
+        <v>315</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G17">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C18</f>
+        <v>891.25093813374554</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C18</f>
+        <v>1122.0184543019634</v>
+      </c>
+      <c r="E18">
+        <v>397</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2520</v>
+      </c>
+      <c r="G18">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C19</f>
+        <v>1114.0636726671819</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1250</v>
+      </c>
+      <c r="D19" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C19</f>
+        <v>1402.5230678774542</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19" s="15">
+        <v>3175</v>
+      </c>
+      <c r="G19">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C20</f>
+        <v>1426.001501013993</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D20" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C20</f>
+        <v>1795.2295268831413</v>
+      </c>
+      <c r="E20">
+        <v>630</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4000</v>
+      </c>
+      <c r="G20">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C21</f>
+        <v>1782.5018762674911</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C21</f>
+        <v>2244.0369086039268</v>
+      </c>
+      <c r="E21">
+        <v>794</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5040</v>
+      </c>
+      <c r="G21">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C22</f>
+        <v>2228.1273453343638</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D22" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C22</f>
+        <v>2805.0461357549084</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="15">
+        <v>6349</v>
+      </c>
+      <c r="G22">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C23</f>
+        <v>2807.4404551212983</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3150</v>
+      </c>
+      <c r="D23" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C23</f>
+        <v>3534.3581310511845</v>
+      </c>
+      <c r="E23">
+        <v>1260</v>
+      </c>
+      <c r="F23" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G23">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>36</v>
+      </c>
+      <c r="B24" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C24</f>
+        <v>3565.0037525349821</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D24" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C24</f>
+        <v>4488.0738172078536</v>
+      </c>
+      <c r="E24">
+        <v>1587</v>
+      </c>
+      <c r="F24" s="15">
+        <v>10079</v>
+      </c>
+      <c r="G24">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>37</v>
+      </c>
+      <c r="B25" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C25</f>
+        <v>4456.2546906687276</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C25</f>
+        <v>5610.0922715098168</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="15">
+        <v>12699</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C26</f>
+        <v>5614.8809102425967</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6300</v>
+      </c>
+      <c r="D26" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C26</f>
+        <v>7068.716262102369</v>
+      </c>
+      <c r="E26">
+        <v>2520</v>
+      </c>
+      <c r="F26" s="15">
+        <v>16000</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5">
+        <f>($O$2^((-1)/(2*$O$3)))*C27</f>
+        <v>7130.0075050699643</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D27" s="5">
+        <f>($O$2^((1)/(2*$O$3)))*C27</f>
+        <v>8976.1476344157072</v>
+      </c>
+      <c r="E27">
+        <v>3175</v>
+      </c>
+      <c r="F27" s="15">
+        <v>20159</v>
+      </c>
+      <c r="G27">
         <v>21</v>
       </c>
     </row>

--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF783A-B3ED-4676-9618-9FDF6D26CAC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFBF390-849C-43F5-9330-7E35F389782C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="8" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Fstop 2</t>
+  </si>
+  <si>
+    <t>Sub band</t>
+  </si>
+  <si>
+    <t>FstopUsed</t>
   </si>
 </sst>
 </file>
@@ -292,18 +298,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -367,10 +367,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -387,8 +387,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,9 +399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,10 +744,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1974,7 +1972,7 @@
       <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -2003,7 +2001,7 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="1">
         <v>2</v>
       </c>
@@ -2030,7 +2028,7 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -2057,7 +2055,7 @@
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -2086,7 +2084,7 @@
       <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -2113,7 +2111,7 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -2140,7 +2138,7 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>3</v>
       </c>
       <c r="G9" s="1">
@@ -2169,7 +2167,7 @@
       <c r="D10" s="1">
         <v>150</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -2196,7 +2194,7 @@
       <c r="D11" s="1">
         <v>160</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -2223,7 +2221,7 @@
       <c r="D12" s="1">
         <v>190</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>4</v>
       </c>
       <c r="G12" s="1">
@@ -2252,7 +2250,7 @@
       <c r="D13" s="1">
         <v>210</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -2279,7 +2277,7 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -2308,7 +2306,7 @@
       <c r="D15" s="1">
         <v>280</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -2335,7 +2333,7 @@
       <c r="D16" s="1">
         <v>320</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>6</v>
       </c>
       <c r="G16" s="1">
@@ -2364,7 +2362,7 @@
       <c r="D17" s="1">
         <v>380</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -2391,7 +2389,7 @@
       <c r="D18" s="1">
         <v>450</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>7</v>
       </c>
       <c r="G18" s="1">
@@ -2420,7 +2418,7 @@
       <c r="D19" s="1">
         <v>550</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -2447,7 +2445,7 @@
       <c r="D20" s="1">
         <v>700</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -2474,7 +2472,7 @@
       <c r="D21" s="1">
         <v>900</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>8</v>
       </c>
       <c r="G21" s="1">
@@ -2503,7 +2501,7 @@
       <c r="D22" s="1">
         <v>1100</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1">
         <v>20</v>
       </c>
@@ -2530,7 +2528,7 @@
       <c r="D23" s="1">
         <v>1300</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1">
         <v>21</v>
       </c>
@@ -3786,703 +3784,866 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C75272-5206-49F9-A631-AFD544323144}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>14</v>
       </c>
-      <c r="B2" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C2</f>
+      <c r="C2" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D2</f>
         <v>22.281273453343641</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="13">
         <v>25</v>
       </c>
-      <c r="D2" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C2</f>
+      <c r="E2" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D2</f>
         <v>28.050461357549082</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="13">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="13">
         <v>62</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="13">
+        <v>62</v>
+      </c>
+      <c r="I2">
         <v>-2.71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>73</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <f>10^(3/10)</f>
         <v>1.9952623149688797</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
         <v>15</v>
       </c>
-      <c r="B3" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C3</f>
+      <c r="C3" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D3</f>
         <v>28.074404551212986</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="12">
         <v>31.5</v>
       </c>
-      <c r="D3" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C3</f>
+      <c r="E3" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D3</f>
         <v>35.343581310511844</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="13">
         <v>12</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="12">
         <v>79</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="12">
+        <v>79</v>
+      </c>
+      <c r="I3">
         <v>-2.5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>74</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
         <v>16</v>
       </c>
-      <c r="B4" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C4</f>
+      <c r="C4" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D4</f>
         <v>35.650037525349823</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="13">
         <v>40</v>
       </c>
-      <c r="D4" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C4</f>
+      <c r="E4" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D4</f>
         <v>44.880738172078537</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="13">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="13">
         <v>99</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="13">
+        <v>99</v>
+      </c>
+      <c r="I4">
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
         <v>17</v>
       </c>
-      <c r="B5" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C5</f>
+      <c r="C5" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D5</f>
         <v>44.562546906687281</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="13">
         <v>50</v>
       </c>
-      <c r="D5" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C5</f>
+      <c r="E5" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D5</f>
         <v>56.100922715098164</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="13">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="13">
         <v>125</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="13">
+        <v>125</v>
+      </c>
+      <c r="I5">
         <v>-1.86</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
         <v>18</v>
       </c>
-      <c r="B6" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C6</f>
+      <c r="C6" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D6</f>
         <v>56.148809102425972</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="13">
         <v>63</v>
       </c>
-      <c r="D6" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C6</f>
+      <c r="E6" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D6</f>
         <v>70.687162621023688</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="13">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="13">
         <v>157</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="13">
+        <v>157</v>
+      </c>
+      <c r="I6">
         <v>-1.42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
         <v>19</v>
       </c>
-      <c r="B7" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C7</f>
+      <c r="C7" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D7</f>
         <v>71.300075050699647</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="13">
         <v>80</v>
       </c>
-      <c r="D7" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C7</f>
+      <c r="E7" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D7</f>
         <v>89.761476344157074</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="13">
         <v>31</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="13">
         <v>198</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="13">
+        <v>198</v>
+      </c>
+      <c r="I7">
         <v>-0.81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C8</f>
+      <c r="C8" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D8</f>
         <v>89.125093813374562</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="D8" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C8</f>
+      <c r="E8" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D8</f>
         <v>112.20184543019633</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="13">
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="13">
         <v>250</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="13">
+        <v>250</v>
+      </c>
+      <c r="I8">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
-        <f>($O$2^((-1)/(2*$O$3)))*C9</f>
+      <c r="C9" s="12">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D9</f>
         <v>111.40636726671819</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="13">
         <v>125</v>
       </c>
-      <c r="D9" s="8">
-        <f>($O$2^((1)/(2*$O$3)))*C9</f>
+      <c r="E9" s="12">
+        <f>($Q$2^((1)/(2*$Q$3)))*D9</f>
         <v>140.25230678774543</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="13">
         <v>50</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="13">
         <v>315</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="13">
+        <v>315</v>
+      </c>
+      <c r="I9">
         <v>0.89</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C10</f>
+      <c r="C10" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D10</f>
         <v>142.60015010139929</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>160</v>
       </c>
-      <c r="D10" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C10</f>
+      <c r="E10" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D10</f>
         <v>179.52295268831415</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>62</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="12">
         <v>397</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="12">
+        <v>397</v>
+      </c>
+      <c r="I10">
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>23</v>
       </c>
-      <c r="B11" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C11</f>
+      <c r="C11" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D11</f>
         <v>178.25018762674912</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C11</f>
+      <c r="E11" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D11</f>
         <v>224.40369086039266</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="1">
         <v>79</v>
       </c>
-      <c r="F11" s="14">
+      <c r="G11" s="12">
         <v>500</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="12">
+        <v>500</v>
+      </c>
+      <c r="I11">
         <v>3.99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>24</v>
       </c>
-      <c r="B12" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C12</f>
+      <c r="C12" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D12</f>
         <v>222.81273453343638</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>250</v>
       </c>
-      <c r="D12" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C12</f>
+      <c r="E12" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D12</f>
         <v>280.50461357549085</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>99</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G12" s="12">
         <v>630</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="12">
+        <v>630</v>
+      </c>
+      <c r="I12">
         <v>6.12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>25</v>
       </c>
-      <c r="B13" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C13</f>
+      <c r="C13" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D13</f>
         <v>280.74404551212984</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>315</v>
       </c>
-      <c r="D13" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C13</f>
+      <c r="E13" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D13</f>
         <v>353.43581310511843</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="1">
         <v>125</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="12">
         <v>794</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="12">
+        <v>794</v>
+      </c>
+      <c r="I13">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>26</v>
       </c>
-      <c r="B14" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C14</f>
+      <c r="C14" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D14</f>
         <v>356.50037525349825</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>400</v>
       </c>
-      <c r="D14" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C14</f>
+      <c r="E14" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D14</f>
         <v>448.80738172078532</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="1">
         <v>157</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="12">
         <v>1000</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I14">
         <v>11.98</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>27</v>
       </c>
-      <c r="B15" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C15</f>
+      <c r="C15" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D15</f>
         <v>445.62546906687277</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>500</v>
       </c>
-      <c r="D15" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C15</f>
+      <c r="E15" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D15</f>
         <v>561.0092271509817</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="1">
         <v>198</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="12">
         <v>1260</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="12">
+        <v>1260</v>
+      </c>
+      <c r="I15">
         <v>15.13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>28</v>
       </c>
-      <c r="B16" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C16</f>
+      <c r="C16" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D16</f>
         <v>561.48809102425969</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>630</v>
       </c>
-      <c r="D16" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C16</f>
+      <c r="E16" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D16</f>
         <v>706.87162621023685</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="1">
         <v>250</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="12">
         <v>1587</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="12">
+        <v>1587</v>
+      </c>
+      <c r="I16">
         <v>18.39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>29</v>
       </c>
-      <c r="B17" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C17</f>
+      <c r="C17" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D17</f>
         <v>713.0007505069965</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>800</v>
       </c>
-      <c r="D17" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C17</f>
+      <c r="E17" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D17</f>
         <v>897.61476344157063</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="1">
         <v>315</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="12">
         <v>2000</v>
       </c>
-      <c r="G17">
+      <c r="H17" s="12">
+        <v>2000</v>
+      </c>
+      <c r="I17">
         <v>21.98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="B18" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C18</f>
+      <c r="C18" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D18</f>
         <v>891.25093813374554</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>1000</v>
       </c>
-      <c r="D18" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C18</f>
+      <c r="E18" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D18</f>
         <v>1122.0184543019634</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="1">
         <v>397</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="12">
         <v>2520</v>
       </c>
-      <c r="G18">
+      <c r="H18" s="12">
+        <v>2500</v>
+      </c>
+      <c r="I18">
         <v>23.9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>31</v>
       </c>
-      <c r="B19" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C19</f>
+      <c r="C19" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D19</f>
         <v>1114.0636726671819</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>1250</v>
       </c>
-      <c r="D19" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C19</f>
+      <c r="E19" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D19</f>
         <v>1402.5230678774542</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="1">
         <v>500</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="12">
         <v>3175</v>
       </c>
-      <c r="G19">
+      <c r="H19" s="12">
+        <v>3000</v>
+      </c>
+      <c r="I19">
         <v>23.68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>32</v>
       </c>
-      <c r="B20" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C20</f>
+      <c r="C20" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D20</f>
         <v>1426.001501013993</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>1600</v>
       </c>
-      <c r="D20" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C20</f>
+      <c r="E20" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D20</f>
         <v>1795.2295268831413</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="1">
         <v>630</v>
       </c>
-      <c r="F20" s="15">
+      <c r="G20" s="12">
         <v>4000</v>
       </c>
-      <c r="G20">
+      <c r="H20" s="12">
+        <v>3500</v>
+      </c>
+      <c r="I20">
         <v>22.83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>33</v>
       </c>
-      <c r="B21" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C21</f>
+      <c r="C21" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D21</f>
         <v>1782.5018762674911</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>2000</v>
       </c>
-      <c r="D21" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C21</f>
+      <c r="E21" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D21</f>
         <v>2244.0369086039268</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="1">
         <v>794</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="12">
         <v>5040</v>
       </c>
-      <c r="G21">
+      <c r="H21" s="12">
+        <v>4000</v>
+      </c>
+      <c r="I21">
         <v>22.01</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>34</v>
       </c>
-      <c r="B22" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C22</f>
+      <c r="C22" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D22</f>
         <v>2228.1273453343638</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>2500</v>
       </c>
-      <c r="D22" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C22</f>
+      <c r="E22" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D22</f>
         <v>2805.0461357549084</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="1">
         <v>1000</v>
       </c>
-      <c r="F22" s="15">
+      <c r="G22" s="12">
         <v>6349</v>
       </c>
-      <c r="G22">
+      <c r="H22" s="12">
+        <v>4750</v>
+      </c>
+      <c r="I22">
         <v>21.59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>35</v>
       </c>
-      <c r="B23" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C23</f>
+      <c r="C23" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D23</f>
         <v>2807.4404551212983</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>3150</v>
       </c>
-      <c r="D23" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C23</f>
+      <c r="E23" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D23</f>
         <v>3534.3581310511845</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="1">
         <v>1260</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="12">
         <v>8000</v>
       </c>
-      <c r="G23">
+      <c r="H23" s="12">
+        <v>5000</v>
+      </c>
+      <c r="I23">
         <v>21.21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>36</v>
       </c>
-      <c r="B24" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C24</f>
+      <c r="C24" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D24</f>
         <v>3565.0037525349821</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>4000</v>
       </c>
-      <c r="D24" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C24</f>
+      <c r="E24" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D24</f>
         <v>4488.0738172078536</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="1">
         <v>1587</v>
       </c>
-      <c r="F24" s="15">
+      <c r="G24" s="12">
         <v>10079</v>
       </c>
-      <c r="G24">
+      <c r="H24" s="12">
+        <v>6000</v>
+      </c>
+      <c r="I24">
         <v>21.01</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>37</v>
       </c>
-      <c r="B25" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C25</f>
+      <c r="C25" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D25</f>
         <v>4456.2546906687276</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>5000</v>
       </c>
-      <c r="D25" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C25</f>
+      <c r="E25" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D25</f>
         <v>5610.0922715098168</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="1">
         <v>2000</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="12">
         <v>12699</v>
       </c>
-      <c r="G25">
+      <c r="H25" s="12">
+        <v>7000</v>
+      </c>
+      <c r="I25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>38</v>
       </c>
-      <c r="B26" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C26</f>
+      <c r="C26" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D26</f>
         <v>5614.8809102425967</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>6300</v>
       </c>
-      <c r="D26" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C26</f>
+      <c r="E26" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D26</f>
         <v>7068.716262102369</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="1">
         <v>2520</v>
       </c>
-      <c r="F26" s="15">
+      <c r="G26" s="12">
         <v>16000</v>
       </c>
-      <c r="G26">
+      <c r="H26" s="12">
+        <v>8500</v>
+      </c>
+      <c r="I26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>39</v>
       </c>
-      <c r="B27" s="5">
-        <f>($O$2^((-1)/(2*$O$3)))*C27</f>
+      <c r="C27" s="5">
+        <f>($Q$2^((-1)/(2*$Q$3)))*D27</f>
         <v>7130.0075050699643</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>8000</v>
       </c>
-      <c r="D27" s="5">
-        <f>($O$2^((1)/(2*$O$3)))*C27</f>
+      <c r="E27" s="5">
+        <f>($Q$2^((1)/(2*$Q$3)))*D27</f>
         <v>8976.1476344157072</v>
       </c>
-      <c r="E27">
+      <c r="F27" s="1">
         <v>3175</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="12">
         <v>20159</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="12">
+        <v>10000</v>
+      </c>
+      <c r="I27">
         <v>21</v>
       </c>
     </row>

--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFBF390-849C-43F5-9330-7E35F389782C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4C53B-71F3-44C0-8A01-02B13EA95B3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="8" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="10" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Parameters" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Octave" sheetId="6" r:id="rId7"/>
     <sheet name="Uniform" sheetId="7" r:id="rId8"/>
     <sheet name="ANSI" sheetId="9" r:id="rId9"/>
+    <sheet name="ANSI new" sheetId="11" r:id="rId10"/>
+    <sheet name="ANSI Oct" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="85">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -275,13 +277,31 @@
   </si>
   <si>
     <t>FstopUsed</t>
+  </si>
+  <si>
+    <t>Fstop used</t>
+  </si>
+  <si>
+    <t>Octave</t>
+  </si>
+  <si>
+    <t>1/3 octave num</t>
+  </si>
+  <si>
+    <t>Sub-band</t>
+  </si>
+  <si>
+    <t>Lower Stopband Frequency</t>
+  </si>
+  <si>
+    <t>Upper Stopband Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +317,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -379,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -387,6 +425,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,6 +441,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +794,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1743,6 +1793,1525 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C02199-D988-41CA-A5FD-2386A59615C8}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14">
+        <v>25</v>
+      </c>
+      <c r="D2" s="13">
+        <f>(2^(-1/10))*C2</f>
+        <v>23.325824788420185</v>
+      </c>
+      <c r="E2" s="13">
+        <f>(2^(1/10))*C2</f>
+        <v>26.794336563407327</v>
+      </c>
+      <c r="F2" s="13">
+        <f>(2^(-4/10))*C2</f>
+        <v>18.946457081379979</v>
+      </c>
+      <c r="G2" s="13">
+        <f>(2^(8/10))*C2</f>
+        <v>43.527528164806206</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2">
+        <f>10^(3/10)</f>
+        <v>1.9952623149688797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D27" si="0">(2^(-1/10))*C3</f>
+        <v>29.390539233409434</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E27" si="1">(2^(1/10))*C3</f>
+        <v>33.760864069893231</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F27" si="2">(2^(-4/10))*C3</f>
+        <v>23.872535922538773</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" ref="G3:G27" si="3">(2^(8/10))*C3</f>
+        <v>54.844685487655823</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
+        <v>37.321319661472295</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>42.870938501451725</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="2"/>
+        <v>30.314331330207963</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" si="3"/>
+        <v>69.64404506368993</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>46.65164957684037</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>53.588673126814655</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="2"/>
+        <v>37.892914162759958</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="3"/>
+        <v>87.055056329612412</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>58.781078466818869</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>67.521728139786461</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="2"/>
+        <v>47.745071845077547</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="3"/>
+        <v>109.68937097531165</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>74.642639322944589</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>85.74187700290345</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="2"/>
+        <v>60.628662660415927</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="3"/>
+        <v>139.28809012737986</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <v>100</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>93.30329915368074</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>107.17734625362931</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="2"/>
+        <v>75.785828325519915</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="3"/>
+        <v>174.11011265922482</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14">
+        <v>125</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>116.62912394210093</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>133.97168281703665</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="2"/>
+        <v>94.732285406899891</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="3"/>
+        <v>217.63764082403102</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>160</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>149.28527864588918</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>171.4837540058069</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="2"/>
+        <v>121.25732532083185</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="3"/>
+        <v>278.57618025475972</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>186.60659830736148</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>214.35469250725862</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="2"/>
+        <v>151.57165665103983</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="3"/>
+        <v>348.22022531844965</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>250</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>233.25824788420186</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>267.9433656340733</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>189.46457081379978</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="3"/>
+        <v>435.27528164806205</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>315</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>293.90539233409436</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>337.60864069893233</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>238.72535922538771</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="3"/>
+        <v>548.44685487655818</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>400</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>373.21319661472296</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>428.70938501451724</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>303.14331330207966</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="3"/>
+        <v>696.4404506368993</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>500</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>466.51649576840373</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>535.8867312681466</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="2"/>
+        <v>378.92914162759956</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="3"/>
+        <v>870.5505632961241</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14">
+        <v>630</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>587.81078466818872</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>675.21728139786467</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>477.45071845077541</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="3"/>
+        <v>1096.8937097531164</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>29</v>
+      </c>
+      <c r="C17" s="14">
+        <v>800</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>746.42639322944592</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>857.41877002903448</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>606.28662660415932</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="3"/>
+        <v>1392.8809012737986</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>933.03299153680746</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>1071.7734625362932</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="2"/>
+        <v>757.85828325519913</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="3"/>
+        <v>1741.1011265922482</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1250</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>1166.2912394210093</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>1339.7168281703664</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
+        <v>947.32285406899894</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="3"/>
+        <v>2176.3764082403104</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>32</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1600</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>1492.8527864588918</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>1714.837540058069</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
+        <v>1212.5732532083186</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="3"/>
+        <v>2785.7618025475972</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>33</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>1866.0659830736149</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>2143.5469250725864</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>1515.7165665103983</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="3"/>
+        <v>3482.2022531844964</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17">
+        <v>34</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2500</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>2332.5824788420186</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>2679.4336563407328</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="2"/>
+        <v>1894.6457081379979</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="3"/>
+        <v>4352.7528164806208</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>35</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3150</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>2939.0539233409431</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>3376.0864069893232</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="2"/>
+        <v>2387.2535922538773</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="3"/>
+        <v>5484.4685487655815</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>36</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4000</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>3732.1319661472298</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>4287.0938501451728</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="2"/>
+        <v>3031.4331330207965</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="3"/>
+        <v>6964.4045063689928</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>37</v>
+      </c>
+      <c r="C25" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
+        <v>4665.1649576840373</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>5358.8673126814656</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="2"/>
+        <v>3789.2914162759957</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="3"/>
+        <v>8705.5056329612416</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>38</v>
+      </c>
+      <c r="C26" s="14">
+        <v>6300</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>5878.1078466818863</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>6752.1728139786464</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="2"/>
+        <v>4774.5071845077546</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="3"/>
+        <v>10968.937097531163</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>39</v>
+      </c>
+      <c r="C27" s="14">
+        <v>8000</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>7464.2639322944597</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>8574.1877002903457</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="2"/>
+        <v>6062.866266041593</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="3"/>
+        <v>13928.809012737986</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A79464-CDB9-47EB-8DFA-611BE494B504}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>22.281273453343641</v>
+      </c>
+      <c r="E2" s="4">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>28.050461357549082</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>22</v>
+      </c>
+      <c r="L2" s="4">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>145</v>
+      </c>
+      <c r="N2" s="22">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>28.074404551212986</v>
+      </c>
+      <c r="E3" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>35.343581310511844</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4">
+        <v>45</v>
+      </c>
+      <c r="L3" s="4">
+        <v>90</v>
+      </c>
+      <c r="M3">
+        <v>190</v>
+      </c>
+      <c r="N3" s="22">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44.880738172078537</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="4">
+        <v>90</v>
+      </c>
+      <c r="L4" s="4">
+        <v>180</v>
+      </c>
+      <c r="M4">
+        <v>280</v>
+      </c>
+      <c r="N4" s="22">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44.562546906687281</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4">
+        <v>56.100922715098164</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4">
+        <v>180</v>
+      </c>
+      <c r="L5" s="4">
+        <v>353</v>
+      </c>
+      <c r="M5">
+        <v>535</v>
+      </c>
+      <c r="N5" s="22">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>56.148809102425972</v>
+      </c>
+      <c r="E6" s="4">
+        <v>63</v>
+      </c>
+      <c r="F6" s="4">
+        <v>70.687162621023688</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>153</v>
+      </c>
+      <c r="K6" s="4">
+        <v>353</v>
+      </c>
+      <c r="L6" s="4">
+        <v>707</v>
+      </c>
+      <c r="M6">
+        <v>907</v>
+      </c>
+      <c r="N6" s="22">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>71.300075050699647</v>
+      </c>
+      <c r="E7" s="4">
+        <v>80</v>
+      </c>
+      <c r="F7" s="4">
+        <v>89.761476344157074</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>507</v>
+      </c>
+      <c r="K7" s="4">
+        <v>707</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1403</v>
+      </c>
+      <c r="M7">
+        <v>1603</v>
+      </c>
+      <c r="N7" s="22">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4">
+        <v>100</v>
+      </c>
+      <c r="F8" s="4">
+        <v>111</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1203</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1403</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2810</v>
+      </c>
+      <c r="M8">
+        <v>3010</v>
+      </c>
+      <c r="N8" s="22">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>111.40636726671819</v>
+      </c>
+      <c r="E9" s="4">
+        <v>125</v>
+      </c>
+      <c r="F9" s="4">
+        <v>140.25230678774543</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2610</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2810</v>
+      </c>
+      <c r="L9" s="4">
+        <v>8200</v>
+      </c>
+      <c r="M9">
+        <v>8400</v>
+      </c>
+      <c r="N9" s="22">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>140</v>
+      </c>
+      <c r="E10" s="4">
+        <v>160</v>
+      </c>
+      <c r="F10" s="4">
+        <v>179.52295268831415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>180</v>
+      </c>
+      <c r="E11" s="4">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4">
+        <v>222.81273453343638</v>
+      </c>
+      <c r="E12" s="4">
+        <v>250</v>
+      </c>
+      <c r="F12" s="4">
+        <v>280.50461357549085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>280.74404551212984</v>
+      </c>
+      <c r="E13" s="4">
+        <v>315</v>
+      </c>
+      <c r="F13" s="4">
+        <v>353.43581310511843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>353</v>
+      </c>
+      <c r="E14" s="4">
+        <v>400</v>
+      </c>
+      <c r="F14" s="4">
+        <v>448.80738172078532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4">
+        <v>449</v>
+      </c>
+      <c r="E15" s="4">
+        <v>500</v>
+      </c>
+      <c r="F15" s="4">
+        <v>561.0092271509817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>561.48809102425969</v>
+      </c>
+      <c r="E16" s="4">
+        <v>630</v>
+      </c>
+      <c r="F16" s="4">
+        <v>706.87162621023685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
+        <v>707</v>
+      </c>
+      <c r="E17" s="4">
+        <v>800</v>
+      </c>
+      <c r="F17" s="4">
+        <v>897.61476344157063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>898</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1100</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1250</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1402.5230678774542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1403</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1795.2295268831413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1795</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2220</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2810</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3150</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3565.0037525349821</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4450</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5610.0922715098168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5610</v>
+      </c>
+      <c r="E26" s="4">
+        <v>6300</v>
+      </c>
+      <c r="F26" s="4">
+        <v>7068.716262102369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7069</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8000</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8976.1476344157072</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1972,7 +3541,7 @@
       <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -2001,7 +3570,7 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="1">
         <v>2</v>
       </c>
@@ -2028,7 +3597,7 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -2055,7 +3624,7 @@
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -2084,7 +3653,7 @@
       <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -2111,7 +3680,7 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -2138,7 +3707,7 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>3</v>
       </c>
       <c r="G9" s="1">
@@ -2167,7 +3736,7 @@
       <c r="D10" s="1">
         <v>150</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -2194,7 +3763,7 @@
       <c r="D11" s="1">
         <v>160</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -2221,7 +3790,7 @@
       <c r="D12" s="1">
         <v>190</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>4</v>
       </c>
       <c r="G12" s="1">
@@ -2250,7 +3819,7 @@
       <c r="D13" s="1">
         <v>210</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -2277,7 +3846,7 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -2306,7 +3875,7 @@
       <c r="D15" s="1">
         <v>280</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -2333,7 +3902,7 @@
       <c r="D16" s="1">
         <v>320</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>6</v>
       </c>
       <c r="G16" s="1">
@@ -2362,7 +3931,7 @@
       <c r="D17" s="1">
         <v>380</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -2389,7 +3958,7 @@
       <c r="D18" s="1">
         <v>450</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>7</v>
       </c>
       <c r="G18" s="1">
@@ -2418,7 +3987,7 @@
       <c r="D19" s="1">
         <v>550</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -2445,7 +4014,7 @@
       <c r="D20" s="1">
         <v>700</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -2472,7 +4041,7 @@
       <c r="D21" s="1">
         <v>900</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>8</v>
       </c>
       <c r="G21" s="1">
@@ -2501,7 +4070,7 @@
       <c r="D22" s="1">
         <v>1100</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1">
         <v>20</v>
       </c>
@@ -2528,7 +4097,7 @@
       <c r="D23" s="1">
         <v>1300</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="1">
         <v>21</v>
       </c>
@@ -3139,7 +4708,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,10 +5353,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C75272-5206-49F9-A631-AFD544323144}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,10 +5366,11 @@
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3821,275 +5392,355 @@
       <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>14</v>
       </c>
-      <c r="C2" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D2</f>
+      <c r="C2" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D2</f>
         <v>22.281273453343641</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>25</v>
       </c>
-      <c r="E2" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D2</f>
+      <c r="E2" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D2</f>
         <v>28.050461357549082</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>10</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>62</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14">
         <v>62</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-2.71</v>
       </c>
-      <c r="P2" t="s">
+      <c r="K2">
+        <f>E2+(0.2*(E2-C2))</f>
+        <v>29.204298938390171</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
         <v>73</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f>10^(3/10)</f>
         <v>1.9952623149688797</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>15</v>
       </c>
-      <c r="C3" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D3</f>
+      <c r="C3" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D3</f>
         <v>28.074404551212986</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>31.5</v>
       </c>
-      <c r="E3" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D3</f>
+      <c r="E3" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D3</f>
         <v>35.343581310511844</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="14">
         <v>12</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <v>79</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="14">
+        <v>12</v>
+      </c>
+      <c r="I3" s="13">
         <v>79</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-2.5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="K3">
+        <f>E3+(0.8*(E3-C3))</f>
+        <v>41.158922717950929</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
         <v>74</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>16</v>
       </c>
-      <c r="C4" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D4</f>
-        <v>35.650037525349823</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="13">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14">
         <v>40</v>
       </c>
-      <c r="E4" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D4</f>
+      <c r="E4" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D4</f>
         <v>44.880738172078537</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>16</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>99</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
+        <v>16</v>
+      </c>
+      <c r="I4" s="14">
         <v>99</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>E4+(0.1*(E4-C4))</f>
+        <v>45.868811989286392</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>17</v>
       </c>
-      <c r="C5" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D5</f>
+      <c r="C5" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D5</f>
         <v>44.562546906687281</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>50</v>
       </c>
-      <c r="E5" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D5</f>
+      <c r="E5" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D5</f>
         <v>56.100922715098164</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="14">
         <v>20</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>125</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
+        <v>20</v>
+      </c>
+      <c r="I5" s="14">
         <v>125</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-1.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>E5+(0.1*(E5-C5))</f>
+        <v>57.254760295939249</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D6</f>
+      <c r="C6" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D6</f>
         <v>56.148809102425972</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>63</v>
       </c>
-      <c r="E6" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D6</f>
+      <c r="E6" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D6</f>
         <v>70.687162621023688</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="14">
         <v>25</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <v>157</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
+        <v>25</v>
+      </c>
+      <c r="I6" s="14">
         <v>157</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>E6+(0.1*(E6-C6))</f>
+        <v>72.140997972883454</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>19</v>
       </c>
-      <c r="C7" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D7</f>
+      <c r="C7" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D7</f>
         <v>71.300075050699647</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>80</v>
       </c>
-      <c r="E7" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D7</f>
+      <c r="E7" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D7</f>
         <v>89.761476344157074</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>31</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>198</v>
       </c>
-      <c r="H7" s="13">
-        <v>198</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="14">
+        <v>31</v>
+      </c>
+      <c r="I7" s="14">
+        <v>180</v>
+      </c>
+      <c r="J7">
         <v>-0.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>E7+(0.1*(E7-C7))</f>
+        <v>91.607616473502816</v>
+      </c>
+      <c r="L7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>20</v>
       </c>
-      <c r="C8" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D8</f>
-        <v>89.125093813374562</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="13">
+        <v>90</v>
+      </c>
+      <c r="D8" s="14">
         <v>100</v>
       </c>
-      <c r="E8" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D8</f>
-        <v>112.20184543019633</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="13">
+        <v>111</v>
+      </c>
+      <c r="F8" s="14">
         <v>39</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>250</v>
       </c>
-      <c r="H8" s="13">
-        <v>250</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="14">
+        <v>39</v>
+      </c>
+      <c r="I8" s="14">
+        <v>230</v>
+      </c>
+      <c r="J8">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>E8+(0.1*(E8-C8))</f>
+        <v>113.1</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>21</v>
       </c>
-      <c r="C9" s="12">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D9</f>
+      <c r="C9" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D9</f>
         <v>111.40636726671819</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>125</v>
       </c>
-      <c r="E9" s="12">
-        <f>($Q$2^((1)/(2*$Q$3)))*D9</f>
+      <c r="E9" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D9</f>
         <v>140.25230678774543</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>50</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>315</v>
       </c>
-      <c r="H9" s="13">
-        <v>315</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="14">
+        <v>50</v>
+      </c>
+      <c r="I9" s="14">
+        <v>280</v>
+      </c>
+      <c r="J9">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>E9+(0.1*(E9-C9))</f>
+        <v>143.13690073984816</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4097,30 +5748,39 @@
         <v>22</v>
       </c>
       <c r="C10" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D10</f>
-        <v>142.60015010139929</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1">
         <v>160</v>
       </c>
       <c r="E10" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D10</f>
+        <f>($R$2^((1)/(2*$R$3)))*D10</f>
         <v>179.52295268831415</v>
       </c>
       <c r="F10" s="1">
         <v>62</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>397</v>
       </c>
-      <c r="H10" s="12">
-        <v>397</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="1">
+        <v>62</v>
+      </c>
+      <c r="I10" s="13">
+        <v>380</v>
+      </c>
+      <c r="J10">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>E10+(0.1*(E10-C10))</f>
+        <v>183.47524795714557</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4128,30 +5788,38 @@
         <v>23</v>
       </c>
       <c r="C11" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D11</f>
-        <v>178.25018762674912</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1">
         <v>200</v>
       </c>
       <c r="E11" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D11</f>
-        <v>224.40369086039266</v>
+        <v>223</v>
       </c>
       <c r="F11" s="1">
         <v>79</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>500</v>
       </c>
-      <c r="H11" s="12">
-        <v>500</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="1">
+        <v>79</v>
+      </c>
+      <c r="I11" s="13">
+        <v>423</v>
+      </c>
+      <c r="J11">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>E11+(0.1*(E11-C11))</f>
+        <v>227.3</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4159,30 +5827,40 @@
         <v>24</v>
       </c>
       <c r="C12" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D12</f>
+        <f>($R$2^((-1)/(2*$R$3)))*D12</f>
         <v>222.81273453343638</v>
       </c>
       <c r="D12" s="1">
         <v>250</v>
       </c>
       <c r="E12" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D12</f>
+        <f>($R$2^((1)/(2*$R$3)))*D12</f>
         <v>280.50461357549085</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>630</v>
       </c>
-      <c r="H12" s="12">
-        <v>630</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="1">
+        <v>99</v>
+      </c>
+      <c r="I12" s="13">
+        <v>481</v>
+      </c>
+      <c r="J12">
         <v>6.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>E12+(0.1*(E12-C12))</f>
+        <v>286.27380147969632</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4190,30 +5868,40 @@
         <v>25</v>
       </c>
       <c r="C13" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D13</f>
+        <f>($R$2^((-1)/(2*$R$3)))*D13</f>
         <v>280.74404551212984</v>
       </c>
       <c r="D13" s="1">
         <v>315</v>
       </c>
       <c r="E13" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D13</f>
+        <f>($R$2^((1)/(2*$R$3)))*D13</f>
         <v>353.43581310511843</v>
       </c>
       <c r="F13" s="1">
         <v>125</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>794</v>
       </c>
-      <c r="H13" s="12">
-        <v>794</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="1">
+        <v>115</v>
+      </c>
+      <c r="I13" s="13">
+        <v>535</v>
+      </c>
+      <c r="J13">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f>E13+(0.1*(E13-C13))</f>
+        <v>360.70498986441726</v>
+      </c>
+      <c r="L13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4221,30 +5909,39 @@
         <v>26</v>
       </c>
       <c r="C14" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D14</f>
-        <v>356.50037525349825</v>
+        <v>353</v>
       </c>
       <c r="D14" s="1">
         <v>400</v>
       </c>
       <c r="E14" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D14</f>
+        <f>($R$2^((1)/(2*$R$3)))*D14</f>
         <v>448.80738172078532</v>
       </c>
       <c r="F14" s="1">
         <v>157</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>1000</v>
       </c>
-      <c r="H14" s="12">
-        <v>1000</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="1">
+        <v>153</v>
+      </c>
+      <c r="I14" s="13">
+        <v>649</v>
+      </c>
+      <c r="J14">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>E14+(0.1*(E14-C14))</f>
+        <v>458.38811989286387</v>
+      </c>
+      <c r="L14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4252,402 +5949,517 @@
         <v>27</v>
       </c>
       <c r="C15" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D15</f>
-        <v>445.62546906687277</v>
+        <v>449</v>
       </c>
       <c r="D15" s="1">
         <v>500</v>
       </c>
       <c r="E15" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D15</f>
+        <f>($R$2^((1)/(2*$R$3)))*D15</f>
         <v>561.0092271509817</v>
       </c>
       <c r="F15" s="1">
         <v>198</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="13">
         <v>1260</v>
       </c>
-      <c r="H15" s="12">
-        <v>1260</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="1">
+        <v>249</v>
+      </c>
+      <c r="I15" s="13">
+        <v>761</v>
+      </c>
+      <c r="J15">
         <v>15.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f>E15+(0.1*(E15-C15))</f>
+        <v>572.21014986607986</v>
+      </c>
+      <c r="L15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>28</v>
       </c>
-      <c r="C16" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D16</f>
+      <c r="C16" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D16</f>
         <v>561.48809102425969</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="14">
         <v>630</v>
       </c>
-      <c r="E16" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D16</f>
+      <c r="E16" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D16</f>
         <v>706.87162621023685</v>
       </c>
       <c r="F16" s="1">
         <v>250</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="13">
         <v>1587</v>
       </c>
-      <c r="H16" s="12">
-        <v>1587</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="1">
+        <v>361</v>
+      </c>
+      <c r="I16" s="13">
+        <v>907</v>
+      </c>
+      <c r="J16">
         <v>18.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f>E16+(0.1*(E16-C16))</f>
+        <v>721.40997972883451</v>
+      </c>
+      <c r="L16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="14">
         <v>29</v>
       </c>
-      <c r="C17" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D17</f>
-        <v>713.0007505069965</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="13">
+        <v>707</v>
+      </c>
+      <c r="D17" s="14">
         <v>800</v>
       </c>
-      <c r="E17" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D17</f>
+      <c r="E17" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D17</f>
         <v>897.61476344157063</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="14">
         <v>315</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="13">
         <v>2000</v>
       </c>
-      <c r="H17" s="12">
-        <v>2000</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="14">
+        <v>507</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1198</v>
+      </c>
+      <c r="J17" s="19">
         <v>21.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f>E17+(0.1*(E17-C17))</f>
+        <v>916.67623978572772</v>
+      </c>
+      <c r="L17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="14">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D18</f>
-        <v>891.25093813374554</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="13">
+        <v>898</v>
+      </c>
+      <c r="D18" s="14">
         <v>1000</v>
       </c>
-      <c r="E18" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D18</f>
-        <v>1122.0184543019634</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="14">
         <v>397</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="13">
         <v>2520</v>
       </c>
-      <c r="H18" s="12">
-        <v>2500</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="14">
+        <v>798</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1300</v>
+      </c>
+      <c r="J18" s="19">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>E18+(0.1*(E18-C18))</f>
+        <v>1120.2</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="14">
         <v>31</v>
       </c>
-      <c r="C19" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D19</f>
-        <v>1114.0636726671819</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="13">
+        <v>1100</v>
+      </c>
+      <c r="D19" s="14">
         <v>1250</v>
       </c>
-      <c r="E19" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D19</f>
+      <c r="E19" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D19</f>
         <v>1402.5230678774542</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="14">
         <v>500</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <v>3175</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="14">
+        <v>900</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1603</v>
+      </c>
+      <c r="J19" s="19">
+        <v>23.68</v>
+      </c>
+      <c r="K19">
+        <f>E19+(0.1*(E19-C19))</f>
+        <v>1432.7753746651997</v>
+      </c>
+      <c r="L19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>32</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1403</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D20</f>
+        <v>1795.2295268831413</v>
+      </c>
+      <c r="F20" s="14">
+        <v>630</v>
+      </c>
+      <c r="G20" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1203</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1995</v>
+      </c>
+      <c r="J20" s="19">
+        <v>22.83</v>
+      </c>
+      <c r="K20" s="19">
+        <f>E20+(0.1*(E20-C20))</f>
+        <v>1834.4524795714553</v>
+      </c>
+      <c r="L20" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1795</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2220</v>
+      </c>
+      <c r="F21" s="14">
+        <v>794</v>
+      </c>
+      <c r="G21" s="13">
+        <v>5040</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1595</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2420</v>
+      </c>
+      <c r="J21" s="19">
+        <v>22.01</v>
+      </c>
+      <c r="K21" s="19">
+        <f>E21+(0.1*(E21-C21))</f>
+        <v>2262.5</v>
+      </c>
+      <c r="L21" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17">
+        <v>34</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2220</v>
+      </c>
+      <c r="D22" s="17">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2810</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>6349</v>
+      </c>
+      <c r="H22" s="17">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="18">
+        <v>3010</v>
+      </c>
+      <c r="J22" s="16">
+        <v>21.59</v>
+      </c>
+      <c r="K22" s="16">
+        <f>E22+(0.1*(E22-C22))</f>
+        <v>2869</v>
+      </c>
+      <c r="L22" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>35</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2810</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3150</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3565</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1260</v>
+      </c>
+      <c r="G23" s="13">
+        <v>8000</v>
+      </c>
+      <c r="H23" s="14">
+        <v>2610</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3765</v>
+      </c>
+      <c r="J23" s="19">
+        <v>21.21</v>
+      </c>
+      <c r="K23" s="19">
+        <f>E23+(0.1*(E23-C23))</f>
+        <v>3640.5</v>
+      </c>
+      <c r="L23" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>36</v>
+      </c>
+      <c r="C24" s="13">
+        <f>($R$2^((-1)/(2*$R$3)))*D24</f>
+        <v>3565.0037525349821</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="15">
+        <v>4450</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1587</v>
+      </c>
+      <c r="G24" s="13">
+        <v>10079</v>
+      </c>
+      <c r="H24" s="14">
         <v>3000</v>
       </c>
-      <c r="I19">
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D20</f>
-        <v>1426.001501013993</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E20" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D20</f>
-        <v>1795.2295268831413</v>
-      </c>
-      <c r="F20" s="1">
-        <v>630</v>
-      </c>
-      <c r="G20" s="12">
-        <v>4000</v>
-      </c>
-      <c r="H20" s="12">
-        <v>3500</v>
-      </c>
-      <c r="I20">
-        <v>22.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D21</f>
-        <v>1782.5018762674911</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="I24" s="13">
+        <v>5000</v>
+      </c>
+      <c r="J24" s="19">
+        <v>21.01</v>
+      </c>
+      <c r="K24" s="19">
+        <f>E24+(0.1*(E24-C24))</f>
+        <v>4538.4996247465015</v>
+      </c>
+      <c r="L24" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>37</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4450</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="7">
+        <f>($R$2^((1)/(2*$R$3)))*D25</f>
+        <v>5610.0922715098168</v>
+      </c>
+      <c r="F25" s="14">
         <v>2000</v>
       </c>
-      <c r="E21" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D21</f>
-        <v>2244.0369086039268</v>
-      </c>
-      <c r="F21" s="1">
-        <v>794</v>
-      </c>
-      <c r="G21" s="12">
-        <v>5040</v>
-      </c>
-      <c r="H21" s="12">
-        <v>4000</v>
-      </c>
-      <c r="I21">
-        <v>22.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G25" s="13">
+        <v>12699</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4250</v>
+      </c>
+      <c r="I25" s="13">
+        <v>5810</v>
+      </c>
+      <c r="J25" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D22</f>
-        <v>2228.1273453343638</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D22</f>
-        <v>2805.0461357549084</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="12">
-        <v>6349</v>
-      </c>
-      <c r="H22" s="12">
-        <v>4750</v>
-      </c>
-      <c r="I22">
-        <v>21.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D23</f>
-        <v>2807.4404551212983</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3150</v>
-      </c>
-      <c r="E23" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D23</f>
-        <v>3534.3581310511845</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1260</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="K25" s="19">
+        <f>E25+(0.1*(E25-C25))</f>
+        <v>5726.1014986607988</v>
+      </c>
+      <c r="L25" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>38</v>
+      </c>
+      <c r="C26" s="20">
+        <v>5610</v>
+      </c>
+      <c r="D26" s="14">
+        <v>6300</v>
+      </c>
+      <c r="E26" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D26</f>
+        <v>7068.716262102369</v>
+      </c>
+      <c r="F26" s="14">
+        <v>2520</v>
+      </c>
+      <c r="G26" s="13">
+        <v>16000</v>
+      </c>
+      <c r="H26" s="14">
+        <v>5410</v>
+      </c>
+      <c r="I26" s="13">
+        <v>7269</v>
+      </c>
+      <c r="J26" s="19">
+        <v>21</v>
+      </c>
+      <c r="K26" s="19">
+        <f>E26+(0.1*(E26-C26))</f>
+        <v>7214.5878883126061</v>
+      </c>
+      <c r="L26" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>39</v>
+      </c>
+      <c r="C27" s="13">
+        <v>7069</v>
+      </c>
+      <c r="D27" s="14">
         <v>8000</v>
       </c>
-      <c r="H23" s="12">
-        <v>5000</v>
-      </c>
-      <c r="I23">
-        <v>21.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>36</v>
-      </c>
-      <c r="C24" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D24</f>
-        <v>3565.0037525349821</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E24" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D24</f>
-        <v>4488.0738172078536</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1587</v>
-      </c>
-      <c r="G24" s="12">
-        <v>10079</v>
-      </c>
-      <c r="H24" s="12">
-        <v>6000</v>
-      </c>
-      <c r="I24">
-        <v>21.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>37</v>
-      </c>
-      <c r="C25" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D25</f>
-        <v>4456.2546906687276</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E25" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D25</f>
-        <v>5610.0922715098168</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="12">
-        <v>12699</v>
-      </c>
-      <c r="H25" s="12">
-        <v>7000</v>
-      </c>
-      <c r="I25">
+      <c r="E27" s="13">
+        <f>($R$2^((1)/(2*$R$3)))*D27</f>
+        <v>8976.1476344157072</v>
+      </c>
+      <c r="F27" s="14">
+        <v>3175</v>
+      </c>
+      <c r="G27" s="13">
+        <v>20159</v>
+      </c>
+      <c r="H27" s="14">
+        <v>6869</v>
+      </c>
+      <c r="I27" s="13">
+        <v>9176</v>
+      </c>
+      <c r="J27" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D26</f>
-        <v>5614.8809102425967</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6300</v>
-      </c>
-      <c r="E26" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D26</f>
-        <v>7068.716262102369</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2520</v>
-      </c>
-      <c r="G26" s="12">
-        <v>16000</v>
-      </c>
-      <c r="H26" s="12">
-        <v>8500</v>
-      </c>
-      <c r="I26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5">
-        <f>($Q$2^((-1)/(2*$Q$3)))*D27</f>
-        <v>7130.0075050699643</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E27" s="5">
-        <f>($Q$2^((1)/(2*$Q$3)))*D27</f>
-        <v>8976.1476344157072</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3175</v>
-      </c>
-      <c r="G27" s="12">
-        <v>20159</v>
-      </c>
-      <c r="H27" s="12">
-        <v>10000</v>
-      </c>
-      <c r="I27">
-        <v>21</v>
+      <c r="K27" s="19">
+        <f>E27+(0.1*(E27-C27))</f>
+        <v>9166.8623978572778</v>
+      </c>
+      <c r="L27" s="19">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4C53B-71F3-44C0-8A01-02B13EA95B3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C07E76-515F-449B-97B9-5E371ABC5E57}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="10" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="85">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -344,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -405,6 +405,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -413,11 +422,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -426,6 +497,28 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,18 +531,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,10 +882,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="30"/>
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1889,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1912,7 @@
       <c r="C1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1836,38 +1924,38 @@
       <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>14</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>25</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <f>(2^(-1/10))*C2</f>
         <v>23.325824788420185</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <f>(2^(1/10))*C2</f>
         <v>26.794336563407327</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <f>(2^(-4/10))*C2</f>
         <v>18.946457081379979</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <f>(2^(8/10))*C2</f>
         <v>43.527528164806206</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="Q2" t="s">
         <v>73</v>
       </c>
@@ -1880,30 +1968,30 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>31.5</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D27" si="0">(2^(-1/10))*C3</f>
         <v>29.390539233409434</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E27" si="1">(2^(1/10))*C3</f>
         <v>33.760864069893231</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <f t="shared" ref="F3:F27" si="2">(2^(-4/10))*C3</f>
         <v>23.872535922538773</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G27" si="3">(2^(8/10))*C3</f>
         <v>54.844685487655823</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="Q3" t="s">
         <v>74</v>
       </c>
@@ -1915,175 +2003,175 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>16</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>40</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>37.321319661472295</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <f t="shared" si="1"/>
         <v>42.870938501451725</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <f t="shared" si="2"/>
         <v>30.314331330207963</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <f t="shared" si="3"/>
         <v>69.64404506368993</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>17</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>50</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>46.65164957684037</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
         <v>53.588673126814655</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <f t="shared" si="2"/>
         <v>37.892914162759958</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <f t="shared" si="3"/>
         <v>87.055056329612412</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>18</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>63</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>58.781078466818869</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>67.521728139786461</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <f t="shared" si="2"/>
         <v>47.745071845077547</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <f t="shared" si="3"/>
         <v>109.68937097531165</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>19</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>80</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>74.642639322944589</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>85.74187700290345</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <f t="shared" si="2"/>
         <v>60.628662660415927</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <f t="shared" si="3"/>
         <v>139.28809012737986</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>100</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>93.30329915368074</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>107.17734625362931</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <f t="shared" si="2"/>
         <v>75.785828325519915</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <f t="shared" si="3"/>
         <v>174.11011265922482</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>21</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>125</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>116.62912394210093</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
         <v>133.97168281703665</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <f t="shared" si="2"/>
         <v>94.732285406899891</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="9">
         <f t="shared" si="3"/>
         <v>217.63764082403102</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2095,24 +2183,24 @@
       <c r="C10" s="1">
         <v>160</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>149.28527864588918</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>171.4837540058069</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>121.25732532083185</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <f t="shared" si="3"/>
         <v>278.57618025475972</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2124,24 +2212,24 @@
       <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>186.60659830736148</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>214.35469250725862</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <f t="shared" si="2"/>
         <v>151.57165665103983</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <f t="shared" si="3"/>
         <v>348.22022531844965</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2153,24 +2241,24 @@
       <c r="C12" s="1">
         <v>250</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>233.25824788420186</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>267.9433656340733</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <f t="shared" si="2"/>
         <v>189.46457081379978</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <f t="shared" si="3"/>
         <v>435.27528164806205</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2182,24 +2270,24 @@
       <c r="C13" s="1">
         <v>315</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>293.90539233409436</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>337.60864069893233</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <f t="shared" si="2"/>
         <v>238.72535922538771</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <f t="shared" si="3"/>
         <v>548.44685487655818</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2211,24 +2299,24 @@
       <c r="C14" s="1">
         <v>400</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>373.21319661472296</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
         <v>428.70938501451724</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <f t="shared" si="2"/>
         <v>303.14331330207966</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <f t="shared" si="3"/>
         <v>696.4404506368993</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2240,24 +2328,24 @@
       <c r="C15" s="1">
         <v>500</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>466.51649576840373</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
         <v>535.8867312681466</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>378.92914162759956</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="9">
         <f t="shared" si="3"/>
         <v>870.5505632961241</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2266,349 +2354,349 @@
       <c r="B16" s="1">
         <v>28</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>630</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>587.81078466818872</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
         <v>675.21728139786467</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <f t="shared" si="2"/>
         <v>477.45071845077541</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <f t="shared" si="3"/>
         <v>1096.8937097531164</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>29</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>800</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>746.42639322944592</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
         <v>857.41877002903448</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <f t="shared" si="2"/>
         <v>606.28662660415932</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <f t="shared" si="3"/>
         <v>1392.8809012737986</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>30</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>1000</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>933.03299153680746</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
         <v>1071.7734625362932</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
         <v>757.85828325519913</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <f t="shared" si="3"/>
         <v>1741.1011265922482</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="19"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>31</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>1250</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>1166.2912394210093</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
         <v>1339.7168281703664</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>947.32285406899894</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <f t="shared" si="3"/>
         <v>2176.3764082403104</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="10">
         <v>32</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <v>1600</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>1492.8527864588918</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>1714.837540058069</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>1212.5732532083186</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <f t="shared" si="3"/>
         <v>2785.7618025475972</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="H20" s="10"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="10">
         <v>33</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="10">
         <v>2000</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>1866.0659830736149</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="9">
         <f t="shared" si="1"/>
         <v>2143.5469250725864</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>1515.7165665103983</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <f t="shared" si="3"/>
         <v>3482.2022531844964</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>34</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>2500</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>2332.5824788420186</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <f t="shared" si="1"/>
         <v>2679.4336563407328</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <f t="shared" si="2"/>
         <v>1894.6457081379979</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <f t="shared" si="3"/>
         <v>4352.7528164806208</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="10">
         <v>35</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <v>3150</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>2939.0539233409431</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <f t="shared" si="1"/>
         <v>3376.0864069893232</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>2387.2535922538773</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <f t="shared" si="3"/>
         <v>5484.4685487655815</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="10">
         <v>36</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="10">
         <v>4000</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>3732.1319661472298</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="9">
         <f t="shared" si="1"/>
         <v>4287.0938501451728</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>3031.4331330207965</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <f t="shared" si="3"/>
         <v>6964.4045063689928</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="10">
         <v>37</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="10">
         <v>5000</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="9">
         <f t="shared" si="0"/>
         <v>4665.1649576840373</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="9">
         <f t="shared" si="1"/>
         <v>5358.8673126814656</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="9">
         <f t="shared" si="2"/>
         <v>3789.2914162759957</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <f t="shared" si="3"/>
         <v>8705.5056329612416</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <v>38</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="10">
         <v>6300</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <f t="shared" si="0"/>
         <v>5878.1078466818863</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="9">
         <f t="shared" si="1"/>
         <v>6752.1728139786464</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>4774.5071845077546</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <f t="shared" si="3"/>
         <v>10968.937097531163</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="10">
         <v>39</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="10">
         <v>8000</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <f t="shared" si="0"/>
         <v>7464.2639322944597</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="9">
         <f t="shared" si="1"/>
         <v>8574.1877002903457</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="9">
         <f t="shared" si="2"/>
         <v>6062.866266041593</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="9">
         <f t="shared" si="3"/>
         <v>13928.809012737986</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2617,10 +2705,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A79464-CDB9-47EB-8DFA-611BE494B504}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,47 +2726,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
+      <c r="A2" s="19"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -2693,27 +2781,28 @@
       <c r="F2" s="4">
         <v>28.050461357549082</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="1"/>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>22</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>45</v>
       </c>
-      <c r="M2">
-        <v>145</v>
-      </c>
-      <c r="N2" s="22">
+      <c r="M2" s="1">
+        <v>150</v>
+      </c>
+      <c r="N2" s="18">
         <v>-2.42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3">
         <v>2</v>
       </c>
@@ -2729,587 +2818,930 @@
       <c r="F3" s="4">
         <v>35.343581310511844</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>30</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>45</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>90</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>190</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="18">
         <v>-1.27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="23">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="23">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="24">
         <v>35</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="24">
         <v>40</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="24">
         <v>44.880738172078537</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="5">
         <v>3</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>60</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>90</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>180</v>
       </c>
-      <c r="M4">
-        <v>280</v>
-      </c>
-      <c r="N4" s="22">
+      <c r="M4" s="1">
+        <v>381</v>
+      </c>
+      <c r="N4" s="18">
         <v>1.26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="29"/>
+      <c r="B5" s="23">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23">
+        <v>17</v>
+      </c>
+      <c r="D5" s="24">
+        <v>44.562546906687281</v>
+      </c>
+      <c r="E5" s="24">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24">
+        <v>56.100922715098164</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>80</v>
+      </c>
+      <c r="K5" s="5">
+        <v>180</v>
+      </c>
+      <c r="L5" s="5">
+        <v>353</v>
+      </c>
+      <c r="M5" s="1">
+        <v>535</v>
+      </c>
+      <c r="N5" s="18">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>18</v>
+      </c>
+      <c r="D6" s="24">
+        <v>56.148809102425972</v>
+      </c>
+      <c r="E6" s="24">
+        <v>63</v>
+      </c>
+      <c r="F6" s="24">
+        <v>70.687162621023688</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>153</v>
+      </c>
+      <c r="K6" s="5">
+        <v>353</v>
+      </c>
+      <c r="L6" s="5">
+        <v>707</v>
+      </c>
+      <c r="M6" s="1">
+        <v>907</v>
+      </c>
+      <c r="N6" s="18">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="23">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23">
+        <v>19</v>
+      </c>
+      <c r="D7" s="24">
+        <v>71.300075050699647</v>
+      </c>
+      <c r="E7" s="24">
+        <v>80</v>
+      </c>
+      <c r="F7" s="24">
+        <v>89.761476344157074</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>507</v>
+      </c>
+      <c r="K7" s="5">
+        <v>707</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1403</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1603</v>
+      </c>
+      <c r="N7" s="18">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21">
+        <v>90</v>
+      </c>
+      <c r="E8" s="21">
+        <v>100</v>
+      </c>
+      <c r="F8" s="22">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1203</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1403</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2810</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3010</v>
+      </c>
+      <c r="N8" s="18">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="26">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26">
+        <v>21</v>
+      </c>
+      <c r="D9" s="27">
+        <v>111.40636726671819</v>
+      </c>
+      <c r="E9" s="27">
+        <v>125</v>
+      </c>
+      <c r="F9" s="28">
+        <v>140.25230678774543</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2610</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2810</v>
+      </c>
+      <c r="L9" s="5">
+        <v>8200</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8400</v>
+      </c>
+      <c r="N9" s="18">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B10" s="20">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
+        <v>22</v>
+      </c>
+      <c r="D10" s="21">
+        <v>140</v>
+      </c>
+      <c r="E10" s="21">
+        <v>160</v>
+      </c>
+      <c r="F10" s="22">
+        <v>179.52295268831415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="26">
+        <v>10</v>
+      </c>
+      <c r="C11" s="26">
+        <v>23</v>
+      </c>
+      <c r="D11" s="27">
+        <v>180</v>
+      </c>
+      <c r="E11" s="27">
+        <v>200</v>
+      </c>
+      <c r="F11" s="28">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20">
+        <v>24</v>
+      </c>
+      <c r="D12" s="21">
+        <v>222.81273453343638</v>
+      </c>
+      <c r="E12" s="21">
+        <v>250</v>
+      </c>
+      <c r="F12" s="22">
+        <v>280.50461357549085</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26">
+        <v>25</v>
+      </c>
+      <c r="D13" s="27">
+        <v>280.74404551212984</v>
+      </c>
+      <c r="E13" s="27">
+        <v>315</v>
+      </c>
+      <c r="F13" s="28">
+        <v>353.43581310511843</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>35</v>
+      </c>
+      <c r="L13" s="5">
+        <v>71</v>
+      </c>
+      <c r="M13" s="1">
+        <v>171</v>
+      </c>
+      <c r="N13" s="18">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B14" s="20">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20">
+        <v>26</v>
+      </c>
+      <c r="D14" s="21">
+        <v>353</v>
+      </c>
+      <c r="E14" s="21">
+        <v>400</v>
+      </c>
+      <c r="F14" s="22">
+        <v>448.80738172078532</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>71</v>
+      </c>
+      <c r="L14" s="5">
+        <v>140</v>
+      </c>
+      <c r="M14" s="1">
+        <v>240</v>
+      </c>
+      <c r="N14" s="18">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="26">
+        <v>14</v>
+      </c>
+      <c r="C15" s="26">
+        <v>27</v>
+      </c>
+      <c r="D15" s="27">
+        <v>449</v>
+      </c>
+      <c r="E15" s="27">
+        <v>500</v>
+      </c>
+      <c r="F15" s="28">
+        <v>561.0092271509817</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>90</v>
+      </c>
+      <c r="K15" s="5">
+        <v>140</v>
+      </c>
+      <c r="L15" s="5">
+        <v>281</v>
+      </c>
+      <c r="M15" s="1">
+        <v>381</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20">
+        <v>28</v>
+      </c>
+      <c r="D16" s="21">
+        <v>561.48809102425969</v>
+      </c>
+      <c r="E16" s="21">
+        <v>630</v>
+      </c>
+      <c r="F16" s="22">
+        <v>706.87162621023685</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5">
+        <v>180</v>
+      </c>
+      <c r="K16" s="5">
+        <v>281</v>
+      </c>
+      <c r="L16" s="5">
+        <v>561</v>
+      </c>
+      <c r="M16" s="1">
+        <v>761</v>
+      </c>
+      <c r="N16" s="18">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="23">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23">
+        <v>29</v>
+      </c>
+      <c r="D17" s="24">
+        <v>707</v>
+      </c>
+      <c r="E17" s="24">
+        <v>800</v>
+      </c>
+      <c r="F17" s="25">
+        <v>897.61476344157063</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>361</v>
+      </c>
+      <c r="K17" s="5">
+        <v>561</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1300</v>
+      </c>
+      <c r="N17" s="18">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="26">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
-        <v>44.562546906687281</v>
-      </c>
-      <c r="E5" s="4">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4">
-        <v>56.100922715098164</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="C18" s="26">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27">
+        <v>898</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="28">
+        <v>1100</v>
+      </c>
+      <c r="I18" s="5">
+        <v>6</v>
+      </c>
+      <c r="J18" s="5">
+        <v>900</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1100</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2220</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2420</v>
+      </c>
+      <c r="N18" s="18">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20">
+        <v>31</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1100</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1250</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1402.5230678774542</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2020</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2220</v>
+      </c>
+      <c r="L19" s="5">
+        <v>4450</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4650</v>
+      </c>
+      <c r="N19" s="18">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="23">
+        <v>19</v>
+      </c>
+      <c r="C20" s="23">
+        <v>32</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1403</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1795.2295268831413</v>
+      </c>
+      <c r="I20" s="5">
+        <v>8</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4250</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4450</v>
+      </c>
+      <c r="L20" s="5">
+        <v>8976</v>
+      </c>
+      <c r="M20" s="1">
+        <v>9176</v>
+      </c>
+      <c r="N20" s="18">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="26">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26">
+        <v>33</v>
+      </c>
+      <c r="D21" s="27">
+        <v>1795</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="28">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20">
+        <v>34</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2220</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="23">
+        <v>35</v>
+      </c>
+      <c r="D23" s="24">
+        <v>2810</v>
+      </c>
+      <c r="E23" s="24">
+        <v>3150</v>
+      </c>
+      <c r="F23" s="25">
+        <v>3565</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="26">
+        <v>23</v>
+      </c>
+      <c r="C24" s="26">
+        <v>36</v>
+      </c>
+      <c r="D24" s="27">
+        <v>3565.0037525349821</v>
+      </c>
+      <c r="E24" s="27">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="28">
+        <v>4450</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5">
+        <v>90</v>
+      </c>
+      <c r="L24" s="5">
+        <v>140</v>
+      </c>
+      <c r="M24" s="1">
+        <v>240</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>8</v>
+      </c>
+      <c r="B25" s="20">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20">
+        <v>37</v>
+      </c>
+      <c r="D25" s="21">
+        <v>4450</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="22">
+        <v>5610.0922715098168</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>60</v>
+      </c>
+      <c r="K25" s="5">
+        <v>145</v>
+      </c>
+      <c r="L25" s="5">
+        <v>223</v>
+      </c>
+      <c r="M25" s="1">
+        <v>323</v>
+      </c>
+      <c r="N25" s="18">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="23">
+        <v>25</v>
+      </c>
+      <c r="C26" s="23">
+        <v>38</v>
+      </c>
+      <c r="D26" s="24">
+        <v>5610</v>
+      </c>
+      <c r="E26" s="24">
+        <v>6300</v>
+      </c>
+      <c r="F26" s="25">
+        <v>7068.716262102369</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>123</v>
+      </c>
+      <c r="K26" s="5">
+        <v>223</v>
+      </c>
+      <c r="L26" s="5">
+        <v>353</v>
+      </c>
+      <c r="M26" s="1">
+        <v>535</v>
+      </c>
+      <c r="N26" s="18">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="26">
+        <v>26</v>
+      </c>
+      <c r="C27" s="26">
+        <v>39</v>
+      </c>
+      <c r="D27" s="27">
+        <v>7069</v>
+      </c>
+      <c r="E27" s="27">
+        <v>8000</v>
+      </c>
+      <c r="F27" s="28">
+        <v>8976.1476344157072</v>
+      </c>
+      <c r="I27" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
-        <v>80</v>
-      </c>
-      <c r="K5" s="4">
-        <v>180</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="J27" s="5">
+        <v>153</v>
+      </c>
+      <c r="K27" s="5">
         <v>353</v>
       </c>
-      <c r="M5">
-        <v>535</v>
-      </c>
-      <c r="N5" s="22">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6">
+      <c r="L27" s="5">
+        <v>561</v>
+      </c>
+      <c r="M27" s="1">
+        <v>761</v>
+      </c>
+      <c r="N27" s="18">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="5">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
-        <v>56.148809102425972</v>
-      </c>
-      <c r="E6" s="4">
-        <v>63</v>
-      </c>
-      <c r="F6" s="4">
-        <v>70.687162621023688</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
-        <v>153</v>
-      </c>
-      <c r="K6" s="4">
-        <v>353</v>
-      </c>
-      <c r="L6" s="4">
-        <v>707</v>
-      </c>
-      <c r="M6">
-        <v>907</v>
-      </c>
-      <c r="N6" s="22">
-        <v>15.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7">
+      <c r="J28" s="5">
+        <v>361</v>
+      </c>
+      <c r="K28" s="5">
+        <v>561</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1300</v>
+      </c>
+      <c r="N28" s="18">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="5">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4">
-        <v>71.300075050699647</v>
-      </c>
-      <c r="E7" s="4">
-        <v>80</v>
-      </c>
-      <c r="F7" s="4">
-        <v>89.761476344157074</v>
-      </c>
-      <c r="I7" s="4">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4">
-        <v>507</v>
-      </c>
-      <c r="K7" s="4">
-        <v>707</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1403</v>
-      </c>
-      <c r="M7">
-        <v>1603</v>
-      </c>
-      <c r="N7" s="22">
-        <v>23.29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>3</v>
-      </c>
-      <c r="B8">
+      <c r="J29" s="5">
+        <v>900</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1250</v>
+      </c>
+      <c r="L29" s="5">
+        <v>2220</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2420</v>
+      </c>
+      <c r="N29" s="18">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="5">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>90</v>
-      </c>
-      <c r="E8" s="4">
-        <v>100</v>
-      </c>
-      <c r="F8" s="4">
-        <v>111</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1203</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1403</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2810</v>
-      </c>
-      <c r="M8">
-        <v>3010</v>
-      </c>
-      <c r="N8" s="22">
-        <v>22.07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9">
+      <c r="J30" s="5">
+        <v>2020</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2220</v>
+      </c>
+      <c r="L30" s="5">
+        <v>4450</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4650</v>
+      </c>
+      <c r="N30" s="18">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="5">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="J31" s="5">
+        <v>4250</v>
+      </c>
+      <c r="K31" s="5">
+        <v>4450</v>
+      </c>
+      <c r="L31" s="5">
+        <v>8976</v>
+      </c>
+      <c r="M31" s="1">
+        <v>9176</v>
+      </c>
+      <c r="N31" s="18">
         <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>111.40636726671819</v>
-      </c>
-      <c r="E9" s="4">
-        <v>125</v>
-      </c>
-      <c r="F9" s="4">
-        <v>140.25230678774543</v>
-      </c>
-      <c r="I9" s="4">
-        <v>8</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2610</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2810</v>
-      </c>
-      <c r="L9" s="4">
-        <v>8200</v>
-      </c>
-      <c r="M9">
-        <v>8400</v>
-      </c>
-      <c r="N9" s="22">
-        <v>21.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4">
-        <v>140</v>
-      </c>
-      <c r="E10" s="4">
-        <v>160</v>
-      </c>
-      <c r="F10" s="4">
-        <v>179.52295268831415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4">
-        <v>180</v>
-      </c>
-      <c r="E11" s="4">
-        <v>200</v>
-      </c>
-      <c r="F11" s="4">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4">
-        <v>222.81273453343638</v>
-      </c>
-      <c r="E12" s="4">
-        <v>250</v>
-      </c>
-      <c r="F12" s="4">
-        <v>280.50461357549085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4">
-        <v>280.74404551212984</v>
-      </c>
-      <c r="E13" s="4">
-        <v>315</v>
-      </c>
-      <c r="F13" s="4">
-        <v>353.43581310511843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4">
-        <v>353</v>
-      </c>
-      <c r="E14" s="4">
-        <v>400</v>
-      </c>
-      <c r="F14" s="4">
-        <v>448.80738172078532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4">
-        <v>449</v>
-      </c>
-      <c r="E15" s="4">
-        <v>500</v>
-      </c>
-      <c r="F15" s="4">
-        <v>561.0092271509817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4">
-        <v>561.48809102425969</v>
-      </c>
-      <c r="E16" s="4">
-        <v>630</v>
-      </c>
-      <c r="F16" s="4">
-        <v>706.87162621023685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>29</v>
-      </c>
-      <c r="D17" s="4">
-        <v>707</v>
-      </c>
-      <c r="E17" s="4">
-        <v>800</v>
-      </c>
-      <c r="F17" s="4">
-        <v>897.61476344157063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
-        <v>898</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1100</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1250</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1402.5230678774542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1403</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1600</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1795.2295268831413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>33</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1795</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2220</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2500</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2810</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3150</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>36</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3565.0037525349821</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4000</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>37</v>
-      </c>
-      <c r="D25" s="4">
-        <v>4450</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5610.0922715098168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5610</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6300</v>
-      </c>
-      <c r="F26" s="4">
-        <v>7068.716262102369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4">
-        <v>7069</v>
-      </c>
-      <c r="E27" s="4">
-        <v>8000</v>
-      </c>
-      <c r="F27" s="4">
-        <v>8976.1476344157072</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3541,7 +3973,7 @@
       <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -3570,7 +4002,7 @@
       <c r="D4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="1">
         <v>2</v>
       </c>
@@ -3597,7 +4029,7 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -3624,7 +4056,7 @@
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="31">
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -3653,7 +4085,7 @@
       <c r="D7" s="1">
         <v>110</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -3680,7 +4112,7 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -3707,7 +4139,7 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="31">
         <v>3</v>
       </c>
       <c r="G9" s="1">
@@ -3736,7 +4168,7 @@
       <c r="D10" s="1">
         <v>150</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="1">
         <v>8</v>
       </c>
@@ -3763,7 +4195,7 @@
       <c r="D11" s="1">
         <v>160</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="1">
         <v>9</v>
       </c>
@@ -3790,7 +4222,7 @@
       <c r="D12" s="1">
         <v>190</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="31">
         <v>4</v>
       </c>
       <c r="G12" s="1">
@@ -3819,7 +4251,7 @@
       <c r="D13" s="1">
         <v>210</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="1">
         <v>11</v>
       </c>
@@ -3846,7 +4278,7 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="31">
         <v>5</v>
       </c>
       <c r="G14" s="1">
@@ -3875,7 +4307,7 @@
       <c r="D15" s="1">
         <v>280</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="1">
         <v>13</v>
       </c>
@@ -3902,7 +4334,7 @@
       <c r="D16" s="1">
         <v>320</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="31">
         <v>6</v>
       </c>
       <c r="G16" s="1">
@@ -3931,7 +4363,7 @@
       <c r="D17" s="1">
         <v>380</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -3958,7 +4390,7 @@
       <c r="D18" s="1">
         <v>450</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="31">
         <v>7</v>
       </c>
       <c r="G18" s="1">
@@ -3987,7 +4419,7 @@
       <c r="D19" s="1">
         <v>550</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="1">
         <v>17</v>
       </c>
@@ -4014,7 +4446,7 @@
       <c r="D20" s="1">
         <v>700</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="1">
         <v>18</v>
       </c>
@@ -4041,7 +4473,7 @@
       <c r="D21" s="1">
         <v>900</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="31">
         <v>8</v>
       </c>
       <c r="G21" s="1">
@@ -4070,7 +4502,7 @@
       <c r="D22" s="1">
         <v>1100</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="1">
         <v>20</v>
       </c>
@@ -4097,7 +4529,7 @@
       <c r="D23" s="1">
         <v>1300</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="1">
         <v>21</v>
       </c>
@@ -4377,7 +4809,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5357,7 +5789,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5392,13 +5824,13 @@
       <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5406,30 +5838,30 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>14</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D2</f>
         <v>22.281273453343641</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>25</v>
       </c>
-      <c r="E2" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D2</f>
+      <c r="E2" s="9">
+        <f t="shared" ref="E2:E7" si="0">($R$2^((1)/(2*$R$3)))*D2</f>
         <v>28.050461357549082</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <v>10</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="10">
         <v>62</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="10">
         <v>10</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="10">
         <v>62</v>
       </c>
       <c r="J2">
@@ -5454,30 +5886,30 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D3</f>
         <v>28.074404551212986</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>31.5</v>
       </c>
-      <c r="E3" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D3</f>
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
         <v>35.343581310511844</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>12</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>79</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>12</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>79</v>
       </c>
       <c r="J3">
@@ -5501,36 +5933,36 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>16</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>35</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>40</v>
       </c>
-      <c r="E4" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D4</f>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
         <v>44.880738172078537</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>16</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>99</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <v>16</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>99</v>
       </c>
       <c r="J4">
         <v>-2.2000000000000002</v>
       </c>
       <c r="K4">
-        <f>E4+(0.1*(E4-C4))</f>
+        <f t="shared" ref="K4:K27" si="1">E4+(0.1*(E4-C4))</f>
         <v>45.868811989286392</v>
       </c>
       <c r="L4">
@@ -5541,37 +5973,37 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D5</f>
         <v>44.562546906687281</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>50</v>
       </c>
-      <c r="E5" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D5</f>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
         <v>56.100922715098164</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>20</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>125</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>20</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>125</v>
       </c>
       <c r="J5">
         <v>-1.86</v>
       </c>
       <c r="K5">
-        <f>E5+(0.1*(E5-C5))</f>
+        <f t="shared" si="1"/>
         <v>57.254760295939249</v>
       </c>
       <c r="L5">
@@ -5582,37 +6014,37 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>18</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D6</f>
         <v>56.148809102425972</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>63</v>
       </c>
-      <c r="E6" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D6</f>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
         <v>70.687162621023688</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>25</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>157</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>25</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>157</v>
       </c>
       <c r="J6">
         <v>-1.42</v>
       </c>
       <c r="K6">
-        <f>E6+(0.1*(E6-C6))</f>
+        <f t="shared" si="1"/>
         <v>72.140997972883454</v>
       </c>
       <c r="L6">
@@ -5623,37 +6055,37 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>19</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D7</f>
         <v>71.300075050699647</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>80</v>
       </c>
-      <c r="E7" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D7</f>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>89.761476344157074</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>31</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>198</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>31</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>180</v>
       </c>
       <c r="J7">
         <v>-0.81</v>
       </c>
       <c r="K7">
-        <f>E7+(0.1*(E7-C7))</f>
+        <f t="shared" si="1"/>
         <v>91.607616473502816</v>
       </c>
       <c r="L7">
@@ -5664,35 +6096,35 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>90</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>100</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>111</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>39</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>250</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>39</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <v>230</v>
       </c>
       <c r="J8">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K8">
-        <f>E8+(0.1*(E8-C8))</f>
+        <f t="shared" si="1"/>
         <v>113.1</v>
       </c>
       <c r="L8">
@@ -5703,37 +6135,37 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>21</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D9</f>
         <v>111.40636726671819</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>125</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <f>($R$2^((1)/(2*$R$3)))*D9</f>
         <v>140.25230678774543</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>50</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>315</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>50</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="10">
         <v>280</v>
       </c>
       <c r="J9">
         <v>0.89</v>
       </c>
       <c r="K9">
-        <f>E9+(0.1*(E9-C9))</f>
+        <f t="shared" si="1"/>
         <v>143.13690073984816</v>
       </c>
       <c r="L9">
@@ -5760,20 +6192,20 @@
       <c r="F10" s="1">
         <v>62</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>397</v>
       </c>
       <c r="H10" s="1">
         <v>62</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>380</v>
       </c>
       <c r="J10">
         <v>2.25</v>
       </c>
       <c r="K10">
-        <f>E10+(0.1*(E10-C10))</f>
+        <f t="shared" si="1"/>
         <v>183.47524795714557</v>
       </c>
       <c r="L10">
@@ -5799,20 +6231,20 @@
       <c r="F11" s="1">
         <v>79</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>500</v>
       </c>
       <c r="H11" s="1">
         <v>79</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>423</v>
       </c>
       <c r="J11">
         <v>3.99</v>
       </c>
       <c r="K11">
-        <f>E11+(0.1*(E11-C11))</f>
+        <f t="shared" si="1"/>
         <v>227.3</v>
       </c>
       <c r="L11">
@@ -5834,26 +6266,26 @@
         <v>250</v>
       </c>
       <c r="E12" s="5">
-        <f>($R$2^((1)/(2*$R$3)))*D12</f>
+        <f t="shared" ref="E12:E17" si="2">($R$2^((1)/(2*$R$3)))*D12</f>
         <v>280.50461357549085</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>630</v>
       </c>
       <c r="H12" s="1">
         <v>99</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>481</v>
       </c>
       <c r="J12">
         <v>6.12</v>
       </c>
       <c r="K12">
-        <f>E12+(0.1*(E12-C12))</f>
+        <f t="shared" si="1"/>
         <v>286.27380147969632</v>
       </c>
       <c r="L12">
@@ -5875,26 +6307,26 @@
         <v>315</v>
       </c>
       <c r="E13" s="5">
-        <f>($R$2^((1)/(2*$R$3)))*D13</f>
+        <f t="shared" si="2"/>
         <v>353.43581310511843</v>
       </c>
       <c r="F13" s="1">
         <v>125</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>794</v>
       </c>
       <c r="H13" s="1">
         <v>115</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>535</v>
       </c>
       <c r="J13">
         <v>8.8000000000000007</v>
       </c>
       <c r="K13">
-        <f>E13+(0.1*(E13-C13))</f>
+        <f t="shared" si="1"/>
         <v>360.70498986441726</v>
       </c>
       <c r="L13">
@@ -5915,26 +6347,26 @@
         <v>400</v>
       </c>
       <c r="E14" s="5">
-        <f>($R$2^((1)/(2*$R$3)))*D14</f>
+        <f t="shared" si="2"/>
         <v>448.80738172078532</v>
       </c>
       <c r="F14" s="1">
         <v>157</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>1000</v>
       </c>
       <c r="H14" s="1">
         <v>153</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>649</v>
       </c>
       <c r="J14">
         <v>11.98</v>
       </c>
       <c r="K14">
-        <f>E14+(0.1*(E14-C14))</f>
+        <f t="shared" si="1"/>
         <v>458.38811989286387</v>
       </c>
       <c r="L14">
@@ -5955,26 +6387,26 @@
         <v>500</v>
       </c>
       <c r="E15" s="5">
-        <f>($R$2^((1)/(2*$R$3)))*D15</f>
+        <f t="shared" si="2"/>
         <v>561.0092271509817</v>
       </c>
       <c r="F15" s="1">
         <v>198</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="9">
         <v>1260</v>
       </c>
       <c r="H15" s="1">
         <v>249</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>761</v>
       </c>
       <c r="J15">
         <v>15.13</v>
       </c>
       <c r="K15">
-        <f>E15+(0.1*(E15-C15))</f>
+        <f t="shared" si="1"/>
         <v>572.21014986607986</v>
       </c>
       <c r="L15">
@@ -5988,34 +6420,34 @@
       <c r="B16" s="1">
         <v>28</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D16</f>
         <v>561.48809102425969</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>630</v>
       </c>
-      <c r="E16" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D16</f>
+      <c r="E16" s="9">
+        <f t="shared" si="2"/>
         <v>706.87162621023685</v>
       </c>
       <c r="F16" s="1">
         <v>250</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>1587</v>
       </c>
       <c r="H16" s="1">
         <v>361</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>907</v>
       </c>
       <c r="J16">
         <v>18.39</v>
       </c>
       <c r="K16">
-        <f>E16+(0.1*(E16-C16))</f>
+        <f t="shared" si="1"/>
         <v>721.40997972883451</v>
       </c>
       <c r="L16">
@@ -6026,36 +6458,36 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>29</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>707</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>800</v>
       </c>
-      <c r="E17" s="13">
-        <f>($R$2^((1)/(2*$R$3)))*D17</f>
+      <c r="E17" s="9">
+        <f t="shared" si="2"/>
         <v>897.61476344157063</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>315</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <v>2000</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>507</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <v>1198</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="15">
         <v>21.98</v>
       </c>
       <c r="K17">
-        <f>E17+(0.1*(E17-C17))</f>
+        <f t="shared" si="1"/>
         <v>916.67623978572772</v>
       </c>
       <c r="L17">
@@ -6066,35 +6498,35 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>30</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>898</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>1000</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>1100</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="10">
         <v>397</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>2520</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="10">
         <v>798</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>1300</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="15">
         <v>23.9</v>
       </c>
       <c r="K18">
-        <f>E18+(0.1*(E18-C18))</f>
+        <f t="shared" si="1"/>
         <v>1120.2</v>
       </c>
       <c r="L18">
@@ -6105,356 +6537,356 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>31</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>1100</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>1250</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <f>($R$2^((1)/(2*$R$3)))*D19</f>
         <v>1402.5230678774542</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>500</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>3175</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <v>900</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>1603</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="15">
         <v>23.68</v>
       </c>
       <c r="K19">
-        <f>E19+(0.1*(E19-C19))</f>
+        <f t="shared" si="1"/>
         <v>1432.7753746651997</v>
       </c>
       <c r="L19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="10">
         <v>32</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>1403</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>1600</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="9">
         <f>($R$2^((1)/(2*$R$3)))*D20</f>
         <v>1795.2295268831413</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="10">
         <v>630</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>4000</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="10">
         <v>1203</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>1995</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="15">
         <v>22.83</v>
       </c>
-      <c r="K20" s="19">
-        <f>E20+(0.1*(E20-C20))</f>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
         <v>1834.4524795714553</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="10">
         <v>33</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="9">
         <v>1795</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>2000</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="9">
         <v>2220</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>794</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>5040</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>1595</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>2420</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="15">
         <v>22.01</v>
       </c>
-      <c r="K21" s="19">
-        <f>E21+(0.1*(E21-C21))</f>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
         <v>2262.5</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>34</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>2220</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <v>2500</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="14">
         <v>2810</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <v>1000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="14">
         <v>6349</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="13">
         <v>2020</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="14">
         <v>3010</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="12">
         <v>21.59</v>
       </c>
-      <c r="K22" s="16">
-        <f>E22+(0.1*(E22-C22))</f>
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
         <v>2869</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="10">
         <v>35</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>2810</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>3150</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <v>3565</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="10">
         <v>1260</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>8000</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="10">
         <v>2610</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>3765</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="15">
         <v>21.21</v>
       </c>
-      <c r="K23" s="19">
-        <f>E23+(0.1*(E23-C23))</f>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
         <v>3640.5</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="10">
         <v>36</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <f>($R$2^((-1)/(2*$R$3)))*D24</f>
         <v>3565.0037525349821</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>4000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>4450</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="10">
         <v>1587</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>10079</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="10">
         <v>3000</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>5000</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="15">
         <v>21.01</v>
       </c>
-      <c r="K24" s="19">
-        <f>E24+(0.1*(E24-C24))</f>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
         <v>4538.4996247465015</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="10">
         <v>37</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="11">
         <v>4450</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>5000</v>
       </c>
       <c r="E25" s="7">
         <f>($R$2^((1)/(2*$R$3)))*D25</f>
         <v>5610.0922715098168</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="10">
         <v>2000</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <v>12699</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <v>4250</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <v>5810</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="15">
         <v>21</v>
       </c>
-      <c r="K25" s="19">
-        <f>E25+(0.1*(E25-C25))</f>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
         <v>5726.1014986607988</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <v>38</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>5610</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <v>6300</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="9">
         <f>($R$2^((1)/(2*$R$3)))*D26</f>
         <v>7068.716262102369</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="10">
         <v>2520</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>16000</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <v>5410</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="9">
         <v>7269</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="15">
         <v>21</v>
       </c>
-      <c r="K26" s="19">
-        <f>E26+(0.1*(E26-C26))</f>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
         <v>7214.5878883126061</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="10">
         <v>39</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>7069</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>8000</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="9">
         <f>($R$2^((1)/(2*$R$3)))*D27</f>
         <v>8976.1476344157072</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="10">
         <v>3175</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="9">
         <v>20159</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="10">
         <v>6869</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="9">
         <v>9176</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="15">
         <v>21</v>
       </c>
-      <c r="K27" s="19">
-        <f>E27+(0.1*(E27-C27))</f>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
         <v>9166.8623978572778</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="15">
         <v>60</v>
       </c>
     </row>

--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C07E76-515F-449B-97B9-5E371ABC5E57}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F59DFD-168E-4C90-A3E1-CD6A3A79A92F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="10" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="4" activeTab="10" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Parameters" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="ANSI" sheetId="9" r:id="rId9"/>
     <sheet name="ANSI new" sheetId="11" r:id="rId10"/>
     <sheet name="ANSI Oct" sheetId="10" r:id="rId11"/>
+    <sheet name="Compression" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -295,6 +296,36 @@
   </si>
   <si>
     <t>Upper Stopband Frequency</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Control (Input or Output)</t>
+  </si>
+  <si>
+    <t>Compression Threshold</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Compression Ratio</t>
+  </si>
+  <si>
+    <t>Attack/Release Time</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Number of Channels</t>
+  </si>
+  <si>
+    <t>Multiple</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,6 +3775,77 @@
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81EF629-05BF-4800-8BE8-A7D2F3A82A32}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Report/Tables.xlsx
+++ b/Report/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Daniel\Varsity\4th Year\Design Project\Adaptive_Hearing_Aid\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F59DFD-168E-4C90-A3E1-CD6A3A79A92F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE526B2-79E3-4E57-ACE4-3347C00B2AAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="4" activeTab="10" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="4" activeTab="11" xr2:uid="{0BB7CC49-5138-4F42-AF03-7B48BFE4C146}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Parameters" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="ANSI" sheetId="9" r:id="rId9"/>
     <sheet name="ANSI new" sheetId="11" r:id="rId10"/>
     <sheet name="ANSI Oct" sheetId="10" r:id="rId11"/>
-    <sheet name="Compression" sheetId="12" r:id="rId12"/>
+    <sheet name="Cost" sheetId="13" r:id="rId12"/>
+    <sheet name="Compression" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="101">
   <si>
     <t>Filter Specifications</t>
   </si>
@@ -326,13 +327,31 @@
   </si>
   <si>
     <t>Multiple</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>ADAU1463</t>
+  </si>
+  <si>
+    <t>Cost (ZAR)</t>
+  </si>
+  <si>
+    <t>TLV320AIC3109-Q1</t>
+  </si>
+  <si>
+    <t>CE20M-16</t>
+  </si>
+  <si>
+    <t>Directionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +372,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -519,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -571,6 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2738,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A79464-CDB9-47EB-8DFA-611BE494B504}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
@@ -3779,6 +3805,63 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31117B2A-8CCC-4E0B-8B92-22B9AB18F004}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1">
+        <v>177.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1">
+        <v>57.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81EF629-05BF-4800-8BE8-A7D2F3A82A32}">
   <dimension ref="A1:C6"/>
   <sheetViews>
